--- a/s_d/feedit12月.xlsx
+++ b/s_d/feedit12月.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="12.2" sheetId="1" r:id="rId1"/>
     <sheet name="12.3" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="21">
   <si>
     <t>订单编号</t>
   </si>
@@ -89,20 +88,6 @@
     <t>王爽</t>
   </si>
   <si>
-    <r>
-      <t>天天熟食 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FFC62626"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（自营）</t>
-    </r>
-  </si>
-  <si>
     <t>陈宇</t>
   </si>
   <si>
@@ -117,11 +102,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -151,9 +136,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,22 +151,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,14 +164,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -211,37 +173,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,7 +197,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,6 +211,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -280,6 +258,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -328,6 +313,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -340,175 +475,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,6 +531,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -564,23 +573,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,17 +593,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,10 +621,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,137 +633,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,30 +793,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1213,446 +1174,446 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="10">
+      <c r="A2" s="1">
         <v>1.02019120220063e+23</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
         <v>43801.8378703704</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="3">
         <v>253</v>
       </c>
-      <c r="F2" s="12">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="10"/>
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="14">
+      <c r="A4" s="5">
         <v>1.02019120220061e+23</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
         <v>43801.8376388889</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="7">
         <v>756</v>
       </c>
-      <c r="F4" s="16">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="14"/>
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="10">
+      <c r="A6" s="1">
         <v>1.02019120220054e+23</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
         <v>43801.8373726852</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="3">
         <v>242</v>
       </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="14">
+      <c r="A8" s="5">
         <v>1.02019120220014e+23</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
         <v>43801.8345486111</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="7">
         <v>219</v>
       </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="14"/>
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="10">
+      <c r="A10" s="1">
         <v>1.0201912022001e+23</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
         <v>43801.8341319444</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="3">
         <v>110</v>
       </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="10"/>
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="14">
+      <c r="A12" s="5">
         <v>1.02019120220001e+23</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="15">
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6">
         <v>43801.8334837963</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="7">
         <v>76.9</v>
       </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="14"/>
+      <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="10">
+      <c r="A14" s="1">
         <v>1.02019120219585e+23</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
         <v>43801.8326157407</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="3">
         <v>374.9</v>
       </c>
-      <c r="F14" s="12">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="14">
+      <c r="A16" s="5">
         <v>1.02019120219573e+23</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6">
         <v>43801.8316087963</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="7">
         <v>1003</v>
       </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="14"/>
+      <c r="A17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="10">
+      <c r="A18" s="1">
         <v>1.02019120219552e+23</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
         <v>43801.8301157407</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="3">
         <v>175</v>
       </c>
-      <c r="F18" s="12">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="10"/>
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="14">
+      <c r="A20" s="5">
         <v>1.02019120219543e+23</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="6">
         <v>43801.8295949074</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="7">
         <v>270</v>
       </c>
-      <c r="F20" s="16">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14" t="s">
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="14"/>
+      <c r="A21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="10">
+      <c r="A22" s="1">
         <v>1.02019120219515e+23</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
         <v>43801.8276851852</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="3">
         <v>155</v>
       </c>
-      <c r="F22" s="12">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="14">
+      <c r="A24" s="5">
         <v>1.02019120219512e+23</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="15">
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6">
         <v>43801.8273958333</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="7">
         <v>230</v>
       </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-      <c r="G24" s="14" t="s">
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="14"/>
+      <c r="A25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="10">
+      <c r="A26" s="1">
         <v>1.02019120219503e+23</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="11">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
         <v>43801.8267708333</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="3">
         <v>262</v>
       </c>
-      <c r="F26" s="12">
-        <v>0</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="10"/>
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="78">
@@ -1762,7 +1723,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:G30"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1772,7 +1733,7 @@
         <v>1.0201912031352e+23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2">
         <v>43802.5778356481</v>
@@ -1806,7 +1767,7 @@
         <v>1.02019120313514e+23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6">
         <v>43802.5776041667</v>
@@ -1840,7 +1801,7 @@
         <v>1.02019120313512e+23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
         <v>43802.5773726852</v>
@@ -1874,7 +1835,7 @@
         <v>1.0201912031351e+23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6">
         <v>43802.5771527778</v>
@@ -1908,7 +1869,7 @@
         <v>1.02019120313504e+23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
         <v>43802.5768634259</v>
@@ -1942,7 +1903,7 @@
         <v>1.02019120313501e+23</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C11" s="6">
         <v>43802.5765856481</v>
@@ -1976,7 +1937,7 @@
         <v>1.02019120313495e+23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2">
         <v>43802.5762962963</v>
@@ -2010,7 +1971,7 @@
         <v>1.02019120313493e+23</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C15" s="6">
         <v>43802.5760532407</v>
@@ -2044,7 +2005,7 @@
         <v>1.0201912031349e+23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2">
         <v>43802.5756944444</v>
@@ -2078,13 +2039,13 @@
         <v>1.02019120313483e+23</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C19" s="6">
         <v>43802.5753703704</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="7">
         <v>146.9</v>
@@ -2112,13 +2073,13 @@
         <v>1.02019120313481e+23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2">
         <v>43802.5751388889</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="3">
         <v>537</v>
@@ -2146,7 +2107,7 @@
         <v>1.02019120313475e+23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C23" s="6">
         <v>43802.5748958333</v>
@@ -2180,7 +2141,7 @@
         <v>1.02019120313473e+23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2">
         <v>43802.5746527778</v>
@@ -2214,13 +2175,13 @@
         <v>1.02019120313464e+23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C27" s="6">
         <v>43802.5740856481</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="7">
         <v>807</v>
@@ -2248,7 +2209,7 @@
         <v>1.02019120313461e+23</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C29" s="6">
         <v>43802.5738078704</v>
@@ -2391,21 +2352,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/s_d/feedit12月.xlsx
+++ b/s_d/feedit12月.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="12.2" sheetId="1" r:id="rId1"/>
     <sheet name="12.3" sheetId="2" r:id="rId2"/>
+    <sheet name="12.5" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="23">
   <si>
     <t>订单编号</t>
   </si>
@@ -96,6 +97,23 @@
   <si>
     <t>刘艳</t>
   </si>
+  <si>
+    <r>
+      <t>天天熟食 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFC62626"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（自营）</t>
+    </r>
+  </si>
+  <si>
+    <t>崔晋艳</t>
+  </si>
 </sst>
 </file>
 
@@ -103,9 +121,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -137,28 +155,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,8 +184,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,30 +232,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,18 +260,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,15 +285,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,7 +331,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,6 +379,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -349,67 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,43 +487,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,31 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,6 +534,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -527,6 +584,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,39 +623,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -589,30 +631,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -621,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,31 +651,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,103 +687,127 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1151,469 +1193,469 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="9">
         <v>1.02019120220063e+23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="10">
         <v>43801.8378703704</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="11">
         <v>253</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
+      <c r="A3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="5">
+      <c r="A4" s="13">
         <v>1.02019120220061e+23</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="14">
         <v>43801.8376388889</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="15">
         <v>756</v>
       </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="9">
         <v>1.02019120220054e+23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="10">
         <v>43801.8373726852</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="11">
         <v>242</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="5">
+      <c r="A8" s="13">
         <v>1.02019120220014e+23</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="14">
         <v>43801.8345486111</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="15">
         <v>219</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5"/>
+      <c r="A9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="9">
         <v>1.0201912022001e+23</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="10">
         <v>43801.8341319444</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="11">
         <v>110</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="5">
+      <c r="A12" s="13">
         <v>1.02019120220001e+23</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="14">
         <v>43801.8334837963</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="15">
         <v>76.9</v>
       </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="1">
+      <c r="A14" s="9">
         <v>1.02019120219585e+23</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="10">
         <v>43801.8326157407</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="11">
         <v>374.9</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
+      <c r="A15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="5">
+      <c r="A16" s="13">
         <v>1.02019120219573e+23</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="14">
         <v>43801.8316087963</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="15">
         <v>1003</v>
       </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5"/>
+      <c r="A17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="1">
+      <c r="A18" s="9">
         <v>1.02019120219552e+23</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="10">
         <v>43801.8301157407</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="11">
         <v>175</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1"/>
+      <c r="A19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="5">
+      <c r="A20" s="13">
         <v>1.02019120219543e+23</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="14">
         <v>43801.8295949074</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="15">
         <v>270</v>
       </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="5"/>
+      <c r="A21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="1">
+      <c r="A22" s="9">
         <v>1.02019120219515e+23</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="10">
         <v>43801.8276851852</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="11">
         <v>155</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="1"/>
+      <c r="A23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="5">
+      <c r="A24" s="13">
         <v>1.02019120219512e+23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="14">
         <v>43801.8273958333</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="15">
         <v>230</v>
       </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="5"/>
+      <c r="A25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="1">
+      <c r="A26" s="9">
         <v>1.02019120219503e+23</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="10">
         <v>43801.8267708333</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="11">
         <v>262</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="78">
@@ -1722,521 +1764,521 @@
   <sheetPr/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="1">
+      <c r="A1" s="9">
         <v>1.0201912031352e+23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="10">
         <v>43802.5778356481</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="11">
         <v>457</v>
       </c>
-      <c r="F1" s="3">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="11">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="5">
+      <c r="A3" s="13">
         <v>1.02019120313514e+23</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="14">
         <v>43802.5776041667</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="15">
         <v>311.9</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="9">
         <v>1.02019120313512e+23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="10">
         <v>43802.5773726852</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="11">
         <v>566</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="13">
         <v>1.0201912031351e+23</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="14">
         <v>43802.5771527778</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="15">
         <v>581.9</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="9">
         <v>1.02019120313504e+23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="10">
         <v>43802.5768634259</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="11">
         <v>570</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="13">
         <v>1.02019120313501e+23</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="14">
         <v>43802.5765856481</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="15">
         <v>357</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="9">
         <v>1.02019120313495e+23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="10">
         <v>43802.5762962963</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="11">
         <v>244.9</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="5">
+      <c r="A15" s="13">
         <v>1.02019120313493e+23</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="14">
         <v>43802.5760532407</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="15">
         <v>296</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="9">
         <v>1.0201912031349e+23</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="10">
         <v>43802.5756944444</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="11">
         <v>514</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="5">
+      <c r="A19" s="13">
         <v>1.02019120313483e+23</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="14">
         <v>43802.5753703704</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="15">
         <v>146.9</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
+      <c r="A20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="1">
+      <c r="A21" s="9">
         <v>1.02019120313481e+23</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="10">
         <v>43802.5751388889</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="11">
         <v>537</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1"/>
+      <c r="A22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="5">
+      <c r="A23" s="13">
         <v>1.02019120313475e+23</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="14">
         <v>43802.5748958333</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="15">
         <v>101</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
+      <c r="A24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="1">
+      <c r="A25" s="9">
         <v>1.02019120313473e+23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="10">
         <v>43802.5746527778</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="11">
         <v>805</v>
       </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="5">
+      <c r="A27" s="13">
         <v>1.02019120313464e+23</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="14">
         <v>43802.5740856481</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="15">
         <v>807</v>
       </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="5"/>
+      <c r="A28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="5">
+      <c r="A29" s="13">
         <v>1.02019120313461e+23</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="14">
         <v>43802.5738078704</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="15">
         <v>389</v>
       </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="5"/>
+      <c r="A30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -2352,4 +2394,1050 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A1" s="1">
+        <v>1.0201912051129e+23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43804.4785069444</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3">
+        <v>302.9</v>
+      </c>
+      <c r="F1" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A3" s="5">
+        <v>1.02019120511284e+23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43804.4782638889</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7">
+        <v>691</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A5" s="1">
+        <v>1.02019120511281e+23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43804.477974537</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>507</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A7" s="5">
+        <v>1.02019120511274e+23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43804.4776273148</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7">
+        <v>464</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A9" s="1">
+        <v>1.02019120511271e+23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43804.4772800926</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3">
+        <v>628</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A11" s="5">
+        <v>1.02019120511264e+23</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6">
+        <v>43804.4769560185</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1482</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A13" s="1">
+        <v>1.02019120511261e+23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43804.4765625</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3">
+        <v>327</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A15" s="5">
+        <v>1.02019120511255e+23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6">
+        <v>43804.4763310185</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7">
+        <v>753</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A17" s="1">
+        <v>1.02019120511253e+23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43804.476087963</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3">
+        <v>571</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A19" s="5">
+        <v>1.02019120511251e+23</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43804.4758333333</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="7">
+        <v>701</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A21" s="1">
+        <v>1.02019120511245e+23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43804.4755787037</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>168</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:7">
+      <c r="A23" s="5">
+        <v>1.02019120511243e+23</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="6">
+        <v>43804.4753472222</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="7">
+        <v>595.9</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:7">
+      <c r="A25" s="1">
+        <v>1.0201912051124e+23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43804.4751041667</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="3">
+        <v>522</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:7">
+      <c r="A27" s="5">
+        <v>1.02019120511234e+23</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="6">
+        <v>43804.4748263889</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="7">
+        <v>244</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="5">
+        <v>1.02019120511232e+23</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="6">
+        <v>43804.4745949074</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1129</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:7">
+      <c r="A31" s="1">
+        <v>1.0201912051123e+23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43804.4743402778</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="3">
+        <v>249</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:7">
+      <c r="A33" s="5">
+        <v>1.02019120511224e+23</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="6">
+        <v>43804.4741087963</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="7">
+        <v>289</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="1">
+        <v>1.02019120511221e+23</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="2">
+        <v>43804.4737962963</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="3">
+        <v>226</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:7">
+      <c r="A36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:7">
+      <c r="A37" s="5">
+        <v>1.02019120511215e+23</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="6">
+        <v>43804.4735532407</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="7">
+        <v>227</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:7">
+      <c r="A38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" ht="14.25" spans="1:7">
+      <c r="A39" s="1">
+        <v>1.02019120511213e+23</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="2">
+        <v>43804.4733217593</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="3">
+        <v>487</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:7">
+      <c r="A40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:7">
+      <c r="A41" s="5">
+        <v>1.02019120511211e+23</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="6">
+        <v>43804.4730902778</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="7">
+        <v>163.8</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:7">
+      <c r="A42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" ht="14.25" spans="1:7">
+      <c r="A43" s="1">
+        <v>1.02019120511205e+23</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43804.4728587963</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="3">
+        <v>375.6</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="1:7">
+      <c r="A44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" ht="14.25" spans="1:7">
+      <c r="A45" s="5">
+        <v>1.02019120511203e+23</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="6">
+        <v>43804.4726041667</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="7">
+        <v>736</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="1:7">
+      <c r="A46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" ht="14.25" spans="1:7">
+      <c r="A47" s="1">
+        <v>1.020191205112e+23</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="2">
+        <v>43804.4722569444</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="3">
+        <v>384</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" spans="1:7">
+      <c r="A48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" ht="14.25" spans="1:7">
+      <c r="A49" s="5">
+        <v>1.02019120511191e+23</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="6">
+        <v>43804.4716782407</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="7">
+        <v>134.9</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="150">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4255"/>
+    <hyperlink ref="A4" r:id="rId2" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4254"/>
+    <hyperlink ref="A6" r:id="rId3" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4253"/>
+    <hyperlink ref="A8" r:id="rId4" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4252"/>
+    <hyperlink ref="A10" r:id="rId5" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4251"/>
+    <hyperlink ref="A12" r:id="rId6" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4250"/>
+    <hyperlink ref="A14" r:id="rId7" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4249"/>
+    <hyperlink ref="A16" r:id="rId8" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4248"/>
+    <hyperlink ref="A18" r:id="rId9" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4247"/>
+    <hyperlink ref="A20" r:id="rId10" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4246"/>
+    <hyperlink ref="A22" r:id="rId11" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4245"/>
+    <hyperlink ref="A24" r:id="rId12" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4244"/>
+    <hyperlink ref="A26" r:id="rId13" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4243"/>
+    <hyperlink ref="A28" r:id="rId14" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4242"/>
+    <hyperlink ref="A30" r:id="rId15" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4241"/>
+    <hyperlink ref="A32" r:id="rId16" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4240"/>
+    <hyperlink ref="A34" r:id="rId17" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4239"/>
+    <hyperlink ref="A36" r:id="rId18" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4238"/>
+    <hyperlink ref="A38" r:id="rId19" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4237"/>
+    <hyperlink ref="A40" r:id="rId20" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4236"/>
+    <hyperlink ref="A42" r:id="rId21" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4235"/>
+    <hyperlink ref="A44" r:id="rId22" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4234"/>
+    <hyperlink ref="A46" r:id="rId23" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4233"/>
+    <hyperlink ref="A48" r:id="rId24" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4232"/>
+    <hyperlink ref="A50" r:id="rId25" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4231"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/s_d/feedit12月.xlsx
+++ b/s_d/feedit12月.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王鹏远\Desktop\Electronic\s_d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8533E29D-2C7F-44D2-AD5A-B204F0BF2E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2AE9F0-467D-40A8-9925-7D602A61EF20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12.2" sheetId="1" r:id="rId1"/>
     <sheet name="12.3" sheetId="2" r:id="rId2"/>
     <sheet name="12.5" sheetId="3" r:id="rId3"/>
     <sheet name="12.6" sheetId="4" r:id="rId4"/>
+    <sheet name="12.7" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="53">
   <si>
     <t>订单编号</t>
   </si>
@@ -171,6 +172,57 @@
   <si>
     <t>￥164.90</t>
   </si>
+  <si>
+    <t>102019120709485760292917 查看</t>
+  </si>
+  <si>
+    <t>天天熟食</t>
+  </si>
+  <si>
+    <t>（自营）</t>
+  </si>
+  <si>
+    <t>102019120709483682412922 查看</t>
+  </si>
+  <si>
+    <t>102019120709481519169025 查看</t>
+  </si>
+  <si>
+    <t>102019120709475478144421 查看</t>
+  </si>
+  <si>
+    <t>102019120709473193687120 查看</t>
+  </si>
+  <si>
+    <t>102019120709465950232033 查看</t>
+  </si>
+  <si>
+    <t>102019120709463632831726 查看</t>
+  </si>
+  <si>
+    <t>102019120709461340019734 查看</t>
+  </si>
+  <si>
+    <t>102019120709171892037130 查看</t>
+  </si>
+  <si>
+    <t>102019120709164957001036 查看</t>
+  </si>
+  <si>
+    <t>102019120709162719116233 查看</t>
+  </si>
+  <si>
+    <t>102019120709154920380532 查看</t>
+  </si>
+  <si>
+    <t>102019120709145467657915 查看</t>
+  </si>
+  <si>
+    <t>102019120709142927491327 查看</t>
+  </si>
+  <si>
+    <t>102019120709131663808726 查看</t>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +288,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -301,7 +359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,6 +390,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -344,40 +420,22 @@
     <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -398,14 +456,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -747,13 +808,13 @@
       <c r="A2" s="5">
         <v>1.02019120220063E+23</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="18">
         <v>43801.8378703704</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14">
@@ -762,7 +823,7 @@
       <c r="F2" s="14">
         <v>0</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -770,24 +831,24 @@
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="10"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="10"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1.02019120220061E+23</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="19">
         <v>43801.837638888901</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="15">
@@ -796,7 +857,7 @@
       <c r="F4" s="15">
         <v>0</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -804,24 +865,24 @@
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="11"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1.02019120220054E+23</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="18">
         <v>43801.837372685201</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="14">
@@ -830,7 +891,7 @@
       <c r="F6" s="14">
         <v>0</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -838,24 +899,24 @@
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1.0201912022001401E+23</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="19">
         <v>43801.834548611099</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="15">
@@ -864,7 +925,7 @@
       <c r="F8" s="15">
         <v>0</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -872,24 +933,24 @@
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1.0201912022001E+23</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="18">
         <v>43801.834131944401</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="14">
@@ -898,7 +959,7 @@
       <c r="F10" s="14">
         <v>0</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -906,24 +967,24 @@
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1.0201912022000101E+23</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="19">
         <v>43801.833483796298</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="15">
@@ -932,7 +993,7 @@
       <c r="F12" s="15">
         <v>0</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -940,24 +1001,24 @@
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>1.02019120219585E+23</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="18">
         <v>43801.832615740699</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="14">
@@ -966,7 +1027,7 @@
       <c r="F14" s="14">
         <v>0</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -974,24 +1035,24 @@
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>1.02019120219573E+23</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="19">
         <v>43801.831608796303</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="15">
@@ -1000,7 +1061,7 @@
       <c r="F16" s="15">
         <v>0</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1008,24 +1069,24 @@
       <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1.02019120219552E+23</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="18">
         <v>43801.830115740697</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="14">
@@ -1034,7 +1095,7 @@
       <c r="F18" s="14">
         <v>0</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1042,24 +1103,24 @@
       <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>1.02019120219543E+23</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="19">
         <v>43801.829594907402</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="15">
@@ -1068,7 +1129,7 @@
       <c r="F20" s="15">
         <v>0</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1076,24 +1137,24 @@
       <c r="A21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="11"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>1.02019120219515E+23</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="18">
         <v>43801.827685185199</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="14">
@@ -1102,7 +1163,7 @@
       <c r="F22" s="14">
         <v>0</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1110,24 +1171,24 @@
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="10"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>1.02019120219512E+23</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="19">
         <v>43801.827395833301</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="15">
@@ -1136,7 +1197,7 @@
       <c r="F24" s="15">
         <v>0</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1144,24 +1205,24 @@
       <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>1.0201912021950301E+23</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="18">
         <v>43801.826770833301</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="14">
@@ -1170,7 +1231,7 @@
       <c r="F26" s="14">
         <v>0</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1178,15 +1239,77 @@
       <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="10"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F26:F27"/>
@@ -1203,68 +1326,6 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -1301,13 +1362,13 @@
       <c r="A1" s="5">
         <v>1.0201912031351999E+23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="18">
         <v>43802.577835648102</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="14">
@@ -1316,7 +1377,7 @@
       <c r="F1" s="14">
         <v>0</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1324,24 +1385,24 @@
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="10"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1.02019120313514E+23</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="19">
         <v>43802.577604166698</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="15">
@@ -1350,7 +1411,7 @@
       <c r="F3" s="15">
         <v>0</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1358,24 +1419,24 @@
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.0201912031351201E+23</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="18">
         <v>43802.577372685198</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="14">
@@ -1384,7 +1445,7 @@
       <c r="F5" s="14">
         <v>0</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1392,24 +1453,24 @@
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1.0201912031350999E+23</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="19">
         <v>43802.577152777798</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="15">
@@ -1418,7 +1479,7 @@
       <c r="F7" s="15">
         <v>0</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1426,24 +1487,24 @@
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.02019120313504E+23</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="18">
         <v>43802.5768634259</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="14">
@@ -1452,7 +1513,7 @@
       <c r="F9" s="14">
         <v>0</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1460,24 +1521,24 @@
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>1.02019120313501E+23</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="19">
         <v>43802.576585648101</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="15">
@@ -1486,7 +1547,7 @@
       <c r="F11" s="15">
         <v>0</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1494,24 +1555,24 @@
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>1.0201912031349499E+23</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="18">
         <v>43802.576296296298</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="14">
@@ -1520,7 +1581,7 @@
       <c r="F13" s="14">
         <v>0</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1528,24 +1589,24 @@
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>1.02019120313493E+23</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="19">
         <v>43802.5760532407</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="15">
@@ -1554,7 +1615,7 @@
       <c r="F15" s="15">
         <v>0</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1562,24 +1623,24 @@
       <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1.0201912031348999E+23</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="18">
         <v>43802.5756944444</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="14">
@@ -1588,7 +1649,7 @@
       <c r="F17" s="14">
         <v>0</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1596,24 +1657,24 @@
       <c r="A18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>1.02019120313483E+23</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="19">
         <v>43802.575370370403</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="15">
@@ -1622,7 +1683,7 @@
       <c r="F19" s="15">
         <v>0</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1630,24 +1691,24 @@
       <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>1.02019120313481E+23</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="18">
         <v>43802.575138888897</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="14">
@@ -1656,7 +1717,7 @@
       <c r="F21" s="14">
         <v>0</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1664,24 +1725,24 @@
       <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>1.02019120313475E+23</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="19">
         <v>43802.574895833299</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="15">
@@ -1690,7 +1751,7 @@
       <c r="F23" s="15">
         <v>0</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1698,24 +1759,24 @@
       <c r="A24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>1.02019120313473E+23</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="18">
         <v>43802.574652777803</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="14">
@@ -1724,7 +1785,7 @@
       <c r="F25" s="14">
         <v>0</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1732,24 +1793,24 @@
       <c r="A26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>1.0201912031346401E+23</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="19">
         <v>43802.574085648099</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="17" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="15">
@@ -1758,7 +1819,7 @@
       <c r="F27" s="15">
         <v>0</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1766,24 +1827,24 @@
       <c r="A28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>1.02019120313461E+23</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="19">
         <v>43802.573807870402</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="15">
@@ -1792,7 +1853,7 @@
       <c r="F29" s="15">
         <v>0</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1800,105 +1861,105 @@
       <c r="A30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="11"/>
+      <c r="G30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -1937,13 +1998,13 @@
       <c r="A1" s="1">
         <v>1.0201912051129E+23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="18">
         <v>43804.478506944397</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="14">
@@ -1952,7 +2013,7 @@
       <c r="F1" s="14">
         <v>0</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1960,24 +2021,24 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="10"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1.0201912051128399E+23</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="19">
         <v>43804.478263888901</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="15">
@@ -1986,7 +2047,7 @@
       <c r="F3" s="15">
         <v>0</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1994,24 +2055,24 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.0201912051128101E+23</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="18">
         <v>43804.477974537003</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="14">
@@ -2020,7 +2081,7 @@
       <c r="F5" s="14">
         <v>0</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2028,24 +2089,24 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1.0201912051127399E+23</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="19">
         <v>43804.477627314802</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="15">
@@ -2054,7 +2115,7 @@
       <c r="F7" s="15">
         <v>0</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2062,24 +2123,24 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1.0201912051127101E+23</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="18">
         <v>43804.4772800926</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="14">
@@ -2088,7 +2149,7 @@
       <c r="F9" s="14">
         <v>0</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2096,24 +2157,24 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1.0201912051126399E+23</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="19">
         <v>43804.476956018501</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="15">
@@ -2122,7 +2183,7 @@
       <c r="F11" s="15">
         <v>0</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2130,24 +2191,24 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1.0201912051126101E+23</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="18">
         <v>43804.4765625</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="14">
@@ -2156,7 +2217,7 @@
       <c r="F13" s="14">
         <v>0</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2164,24 +2225,24 @@
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1.02019120511255E+23</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="19">
         <v>43804.476331018501</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="15">
@@ -2190,7 +2251,7 @@
       <c r="F15" s="15">
         <v>0</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2198,24 +2259,24 @@
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1.0201912051125301E+23</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="18">
         <v>43804.476087962998</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="14">
@@ -2224,7 +2285,7 @@
       <c r="F17" s="14">
         <v>0</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2232,24 +2293,24 @@
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1.0201912051125099E+23</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="19">
         <v>43804.475833333301</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="15">
@@ -2258,7 +2319,7 @@
       <c r="F19" s="15">
         <v>0</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2266,24 +2327,24 @@
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1.02019120511245E+23</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="18">
         <v>43804.475578703699</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="14">
@@ -2292,7 +2353,7 @@
       <c r="F21" s="14">
         <v>0</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2300,24 +2361,24 @@
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1.0201912051124301E+23</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="19">
         <v>43804.4753472222</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="15">
@@ -2326,7 +2387,7 @@
       <c r="F23" s="15">
         <v>0</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2334,24 +2395,24 @@
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1.0201912051124E+23</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="18">
         <v>43804.475104166697</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="14">
@@ -2360,7 +2421,7 @@
       <c r="F25" s="14">
         <v>0</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2368,24 +2429,24 @@
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1.02019120511234E+23</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="19">
         <v>43804.474826388898</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="15">
@@ -2394,7 +2455,7 @@
       <c r="F27" s="15">
         <v>0</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2402,24 +2463,24 @@
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1.02019120511232E+23</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="19">
         <v>43804.474594907399</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="15">
@@ -2428,7 +2489,7 @@
       <c r="F29" s="15">
         <v>0</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2436,24 +2497,24 @@
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="11"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1.0201912051123E+23</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="18">
         <v>43804.474340277797</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="14">
@@ -2462,7 +2523,7 @@
       <c r="F31" s="14">
         <v>0</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2470,24 +2531,24 @@
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="10"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="10"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>1.02019120511224E+23</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="19">
         <v>43804.474108796298</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="15">
@@ -2496,7 +2557,7 @@
       <c r="F33" s="15">
         <v>0</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2504,24 +2565,24 @@
       <c r="A34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="11"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1.0201912051122099E+23</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="18">
         <v>43804.473796296297</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="14">
@@ -2530,7 +2591,7 @@
       <c r="F35" s="14">
         <v>0</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2538,24 +2599,24 @@
       <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="10"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>1.0201912051121501E+23</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="19">
         <v>43804.473553240699</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="15">
@@ -2564,7 +2625,7 @@
       <c r="F37" s="15">
         <v>0</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2572,24 +2633,24 @@
       <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="11"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="11"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1.0201912051121299E+23</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="18">
         <v>43804.473321759302</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="14">
@@ -2598,7 +2659,7 @@
       <c r="F39" s="14">
         <v>0</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2606,24 +2667,24 @@
       <c r="A40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="10"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
-      <c r="G40" s="10"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>1.02019120511211E+23</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="19">
         <v>43804.473090277803</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="15">
@@ -2632,7 +2693,7 @@
       <c r="F41" s="15">
         <v>0</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2640,24 +2701,24 @@
       <c r="A42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="11"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="11"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1.0201912051120501E+23</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="18">
         <v>43804.472858796304</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="14">
@@ -2666,7 +2727,7 @@
       <c r="F43" s="14">
         <v>0</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2674,24 +2735,24 @@
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="10"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="16"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
-      <c r="G44" s="10"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>1.0201912051120299E+23</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="19">
         <v>43804.472604166702</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="15">
@@ -2700,7 +2761,7 @@
       <c r="F45" s="15">
         <v>0</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2708,24 +2769,24 @@
       <c r="A46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="11"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="11"/>
+      <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1.0201912051120001E+23</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="18">
         <v>43804.472256944398</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="14">
@@ -2734,7 +2795,7 @@
       <c r="F47" s="14">
         <v>0</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2742,24 +2803,24 @@
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="10"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
-      <c r="G48" s="10"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>1.02019120511191E+23</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="19">
         <v>43804.471678240698</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="15">
@@ -2768,7 +2829,7 @@
       <c r="F49" s="15">
         <v>0</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2776,24 +2837,132 @@
       <c r="A50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="11"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
-      <c r="G50" s="11"/>
+      <c r="G50" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="F39:F40"/>
@@ -2818,123 +2987,15 @@
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -2972,14 +3033,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C31482B-5C03-4971-958E-D6A193BA8327}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17">
+      <c r="A1" s="11">
         <v>1.02019120610421E+23</v>
       </c>
       <c r="B1" s="20" t="s">
@@ -3002,18 +3063,18 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="A2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="13">
         <v>1.02019120610414E+23</v>
       </c>
       <c r="B3" s="26" t="s">
@@ -3036,7 +3097,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="27"/>
@@ -3047,7 +3108,7 @@
       <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="11">
         <v>1.0201912061040999E+23</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -3070,18 +3131,18 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="A6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="13">
         <v>1.02019120610403E+23</v>
       </c>
       <c r="B7" s="26" t="s">
@@ -3104,7 +3165,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="27"/>
@@ -3115,7 +3176,7 @@
       <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="11">
         <v>1.0201912061039201E+23</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -3138,18 +3199,18 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="A10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="13">
         <v>1.0201912061038999E+23</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -3172,7 +3233,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="27"/>
@@ -3183,7 +3244,7 @@
       <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="11">
         <v>1.02019120610383E+23</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -3206,18 +3267,18 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="A14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="13">
         <v>1.0201912061038E+23</v>
       </c>
       <c r="B15" s="26" t="s">
@@ -3240,7 +3301,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="27"/>
@@ -3251,7 +3312,7 @@
       <c r="G16" s="31"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="11">
         <v>1.0201912061037199E+23</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -3274,18 +3335,18 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="A18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="13">
         <v>1.0201912061037E+23</v>
       </c>
       <c r="B19" s="26" t="s">
@@ -3308,7 +3369,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="27"/>
@@ -3319,7 +3380,7 @@
       <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="11">
         <v>1.02019120610361E+23</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -3342,23 +3403,72 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
+      <c r="A22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
@@ -3366,60 +3476,11 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -3438,4 +3499,410 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23249E1-6D5A-449A-8508-1020CA28889A}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="35">
+        <v>43806.408993055556</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1">
+        <v>403</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="35">
+        <v>43806.408750000002</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>1061</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="35">
+        <v>43806.408506944441</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>483</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="35">
+        <v>43806.408263888887</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>421</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="35">
+        <v>43806.407997685186</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>91.9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="35">
+        <v>43806.407627314817</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>338</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="35">
+        <v>43806.407361111109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>541</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="35">
+        <v>43806.407094907408</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>302</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="35">
+        <v>43806.387013888889</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>730</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="35">
+        <v>43806.386678240742</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>224</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="35">
+        <v>43806.386423611111</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>398</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="35">
+        <v>43806.385983796295</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>351</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="35">
+        <v>43806.385347222225</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>614</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="35">
+        <v>43806.385057870371</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>511</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="35">
+        <v>43806.384212962963</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>192</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/s_d/feedit12月.xlsx
+++ b/s_d/feedit12月.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王鹏远\Desktop\Electronic\s_d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2AE9F0-467D-40A8-9925-7D602A61EF20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A5F432-36C8-465F-9EA4-AD260FD352C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12.2" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="12.5" sheetId="3" r:id="rId3"/>
     <sheet name="12.6" sheetId="4" r:id="rId4"/>
     <sheet name="12.7" sheetId="5" r:id="rId5"/>
+    <sheet name="12.8" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="69">
   <si>
     <t>订单编号</t>
   </si>
@@ -222,6 +223,54 @@
   </si>
   <si>
     <t>102019120709131663808726 查看</t>
+  </si>
+  <si>
+    <t>102019120811571530104049 查看</t>
+  </si>
+  <si>
+    <t>102019120811565038799716 查看</t>
+  </si>
+  <si>
+    <t>102019120811562860844626 查看</t>
+  </si>
+  <si>
+    <t>102019120811560276496525 查看</t>
+  </si>
+  <si>
+    <t>102019120811554042212545 查看</t>
+  </si>
+  <si>
+    <t>102019120811551868512331 查看</t>
+  </si>
+  <si>
+    <t>102019120811545320785333 查看</t>
+  </si>
+  <si>
+    <t>102019120811542173086732 查看</t>
+  </si>
+  <si>
+    <t>102019120811533089235928 查看</t>
+  </si>
+  <si>
+    <t>102019120811525459995517 查看</t>
+  </si>
+  <si>
+    <t>102019120811523312214349 查看</t>
+  </si>
+  <si>
+    <t>102019120811521152269339 查看</t>
+  </si>
+  <si>
+    <t>102019120811514949035629 查看</t>
+  </si>
+  <si>
+    <t>102019120811512172632145 查看</t>
+  </si>
+  <si>
+    <t>102019120811505439350239 查看</t>
+  </si>
+  <si>
+    <t>102019120811501318386931 查看</t>
   </si>
 </sst>
 </file>
@@ -402,6 +451,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -418,18 +470,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -456,17 +496,26 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -808,22 +857,22 @@
       <c r="A2" s="5">
         <v>1.02019120220063E+23</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="19">
         <v>43801.8378703704</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="15">
         <v>253</v>
       </c>
-      <c r="F2" s="14">
-        <v>0</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -831,33 +880,33 @@
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1.02019120220061E+23</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="20">
         <v>43801.837638888901</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="16">
         <v>756</v>
       </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -865,33 +914,33 @@
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1.02019120220054E+23</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="19">
         <v>43801.837372685201</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="15">
         <v>242</v>
       </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -899,33 +948,33 @@
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1.0201912022001401E+23</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="20">
         <v>43801.834548611099</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="16">
         <v>219</v>
       </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -933,33 +982,33 @@
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1.0201912022001E+23</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="19">
         <v>43801.834131944401</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="15">
         <v>110</v>
       </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -967,33 +1016,33 @@
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1.0201912022000101E+23</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="20">
         <v>43801.833483796298</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="16">
         <v>76.900000000000006</v>
       </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17" t="s">
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1001,33 +1050,33 @@
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>1.02019120219585E+23</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="19">
         <v>43801.832615740699</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="15">
         <v>374.9</v>
       </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1035,33 +1084,33 @@
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>1.02019120219573E+23</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="20">
         <v>43801.831608796303</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="16">
         <v>1003</v>
       </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1069,33 +1118,33 @@
       <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1.02019120219552E+23</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="19">
         <v>43801.830115740697</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="15">
         <v>175</v>
       </c>
-      <c r="F18" s="14">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16" t="s">
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1103,33 +1152,33 @@
       <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>1.02019120219543E+23</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="20">
         <v>43801.829594907402</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="16">
         <v>270</v>
       </c>
-      <c r="F20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="17" t="s">
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1137,33 +1186,33 @@
       <c r="A21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>1.02019120219515E+23</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="19">
         <v>43801.827685185199</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="15">
         <v>155</v>
       </c>
-      <c r="F22" s="14">
-        <v>0</v>
-      </c>
-      <c r="G22" s="16" t="s">
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1171,33 +1220,33 @@
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>1.02019120219512E+23</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="20">
         <v>43801.827395833301</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="16">
         <v>230</v>
       </c>
-      <c r="F24" s="15">
-        <v>0</v>
-      </c>
-      <c r="G24" s="17" t="s">
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1205,33 +1254,33 @@
       <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>1.0201912021950301E+23</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="19">
         <v>43801.826770833301</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="15">
         <v>262</v>
       </c>
-      <c r="F26" s="14">
-        <v>0</v>
-      </c>
-      <c r="G26" s="16" t="s">
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1239,12 +1288,12 @@
       <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="78">
@@ -1362,22 +1411,22 @@
       <c r="A1" s="5">
         <v>1.0201912031351999E+23</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18">
+      <c r="C1" s="19">
         <v>43802.577835648102</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="14">
+      <c r="E1" s="15">
         <v>457</v>
       </c>
-      <c r="F1" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="15">
+        <v>0</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1385,33 +1434,33 @@
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1.02019120313514E+23</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="20">
         <v>43802.577604166698</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="16">
         <v>311.89999999999998</v>
       </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1419,33 +1468,33 @@
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.0201912031351201E+23</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="19">
         <v>43802.577372685198</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="15">
         <v>566</v>
       </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1453,33 +1502,33 @@
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1.0201912031350999E+23</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="20">
         <v>43802.577152777798</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="16">
         <v>581.9</v>
       </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1487,33 +1536,33 @@
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.02019120313504E+23</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="19">
         <v>43802.5768634259</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="15">
         <v>570</v>
       </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1521,33 +1570,33 @@
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>1.02019120313501E+23</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="20">
         <v>43802.576585648101</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="16">
         <v>357</v>
       </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1555,33 +1604,33 @@
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>1.0201912031349499E+23</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="19">
         <v>43802.576296296298</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="15">
         <v>244.9</v>
       </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1589,33 +1638,33 @@
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>1.02019120313493E+23</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="20">
         <v>43802.5760532407</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="16">
         <v>296</v>
       </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17" t="s">
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1623,33 +1672,33 @@
       <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1.0201912031348999E+23</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="19">
         <v>43802.5756944444</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="15">
         <v>514</v>
       </c>
-      <c r="F17" s="14">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1657,33 +1706,33 @@
       <c r="A18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>1.02019120313483E+23</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="20">
         <v>43802.575370370403</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="16">
         <v>146.9</v>
       </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1691,33 +1740,33 @@
       <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>1.02019120313481E+23</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="19">
         <v>43802.575138888897</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="15">
         <v>537</v>
       </c>
-      <c r="F21" s="14">
-        <v>0</v>
-      </c>
-      <c r="G21" s="16" t="s">
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1725,33 +1774,33 @@
       <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>1.02019120313475E+23</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="20">
         <v>43802.574895833299</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="16">
         <v>101</v>
       </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="17" t="s">
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1759,33 +1808,33 @@
       <c r="A24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>1.02019120313473E+23</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="19">
         <v>43802.574652777803</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="15">
         <v>805</v>
       </c>
-      <c r="F25" s="14">
-        <v>0</v>
-      </c>
-      <c r="G25" s="16" t="s">
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1793,33 +1842,33 @@
       <c r="A26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>1.0201912031346401E+23</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="20">
         <v>43802.574085648099</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="16">
         <v>807</v>
       </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="17" t="s">
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1827,33 +1876,33 @@
       <c r="A28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>1.02019120313461E+23</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="20">
         <v>43802.573807870402</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="16">
         <v>389</v>
       </c>
-      <c r="F29" s="15">
-        <v>0</v>
-      </c>
-      <c r="G29" s="17" t="s">
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1861,12 +1910,12 @@
       <c r="A30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -1998,22 +2047,22 @@
       <c r="A1" s="1">
         <v>1.0201912051129E+23</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="18">
+      <c r="C1" s="19">
         <v>43804.478506944397</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="14">
+      <c r="E1" s="15">
         <v>302.89999999999998</v>
       </c>
-      <c r="F1" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="15">
+        <v>0</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2021,33 +2070,33 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1.0201912051128399E+23</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="20">
         <v>43804.478263888901</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="16">
         <v>691</v>
       </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2055,33 +2104,33 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.0201912051128101E+23</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="19">
         <v>43804.477974537003</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="15">
         <v>507</v>
       </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2089,33 +2138,33 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1.0201912051127399E+23</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="20">
         <v>43804.477627314802</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="16">
         <v>464</v>
       </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2123,33 +2172,33 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1.0201912051127101E+23</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="19">
         <v>43804.4772800926</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="15">
         <v>628</v>
       </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2157,33 +2206,33 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1.0201912051126399E+23</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="20">
         <v>43804.476956018501</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="16">
         <v>1482</v>
       </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2191,33 +2240,33 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1.0201912051126101E+23</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="19">
         <v>43804.4765625</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="15">
         <v>327</v>
       </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2225,33 +2274,33 @@
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1.02019120511255E+23</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="20">
         <v>43804.476331018501</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="16">
         <v>753</v>
       </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17" t="s">
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2259,33 +2308,33 @@
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1.0201912051125301E+23</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="19">
         <v>43804.476087962998</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="15">
         <v>571</v>
       </c>
-      <c r="F17" s="14">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2293,33 +2342,33 @@
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1.0201912051125099E+23</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="20">
         <v>43804.475833333301</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="16">
         <v>701</v>
       </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2327,33 +2376,33 @@
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1.02019120511245E+23</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="19">
         <v>43804.475578703699</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="15">
         <v>168</v>
       </c>
-      <c r="F21" s="14">
-        <v>0</v>
-      </c>
-      <c r="G21" s="16" t="s">
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2361,33 +2410,33 @@
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1.0201912051124301E+23</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="20">
         <v>43804.4753472222</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="16">
         <v>595.9</v>
       </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="17" t="s">
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2395,33 +2444,33 @@
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1.0201912051124E+23</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="19">
         <v>43804.475104166697</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="15">
         <v>522</v>
       </c>
-      <c r="F25" s="14">
-        <v>0</v>
-      </c>
-      <c r="G25" s="16" t="s">
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2429,33 +2478,33 @@
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1.02019120511234E+23</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="20">
         <v>43804.474826388898</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="16">
         <v>244</v>
       </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="17" t="s">
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2463,33 +2512,33 @@
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1.02019120511232E+23</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="20">
         <v>43804.474594907399</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="16">
         <v>1129</v>
       </c>
-      <c r="F29" s="15">
-        <v>0</v>
-      </c>
-      <c r="G29" s="17" t="s">
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2497,33 +2546,33 @@
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1.0201912051123E+23</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="19">
         <v>43804.474340277797</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="15">
         <v>249</v>
       </c>
-      <c r="F31" s="14">
-        <v>0</v>
-      </c>
-      <c r="G31" s="16" t="s">
+      <c r="F31" s="15">
+        <v>0</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2531,33 +2580,33 @@
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>1.02019120511224E+23</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="20">
         <v>43804.474108796298</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="16">
         <v>289</v>
       </c>
-      <c r="F33" s="15">
-        <v>0</v>
-      </c>
-      <c r="G33" s="17" t="s">
+      <c r="F33" s="16">
+        <v>0</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2565,33 +2614,33 @@
       <c r="A34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1.0201912051122099E+23</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="19">
         <v>43804.473796296297</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="15">
         <v>226</v>
       </c>
-      <c r="F35" s="14">
-        <v>0</v>
-      </c>
-      <c r="G35" s="16" t="s">
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2599,33 +2648,33 @@
       <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>1.0201912051121501E+23</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="20">
         <v>43804.473553240699</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="16">
         <v>227</v>
       </c>
-      <c r="F37" s="15">
-        <v>0</v>
-      </c>
-      <c r="G37" s="17" t="s">
+      <c r="F37" s="16">
+        <v>0</v>
+      </c>
+      <c r="G37" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2633,33 +2682,33 @@
       <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="18"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1.0201912051121299E+23</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="19">
         <v>43804.473321759302</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="15">
         <v>487</v>
       </c>
-      <c r="F39" s="14">
-        <v>0</v>
-      </c>
-      <c r="G39" s="16" t="s">
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2667,33 +2716,33 @@
       <c r="A40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>1.02019120511211E+23</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="20">
         <v>43804.473090277803</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="16">
         <v>163.80000000000001</v>
       </c>
-      <c r="F41" s="15">
-        <v>0</v>
-      </c>
-      <c r="G41" s="17" t="s">
+      <c r="F41" s="16">
+        <v>0</v>
+      </c>
+      <c r="G41" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2701,33 +2750,33 @@
       <c r="A42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1.0201912051120501E+23</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="19">
         <v>43804.472858796304</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="15">
         <v>375.6</v>
       </c>
-      <c r="F43" s="14">
-        <v>0</v>
-      </c>
-      <c r="G43" s="16" t="s">
+      <c r="F43" s="15">
+        <v>0</v>
+      </c>
+      <c r="G43" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2735,33 +2784,33 @@
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>1.0201912051120299E+23</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="20">
         <v>43804.472604166702</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="16">
         <v>736</v>
       </c>
-      <c r="F45" s="15">
-        <v>0</v>
-      </c>
-      <c r="G45" s="17" t="s">
+      <c r="F45" s="16">
+        <v>0</v>
+      </c>
+      <c r="G45" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2769,33 +2818,33 @@
       <c r="A46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="18"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1.0201912051120001E+23</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="19">
         <v>43804.472256944398</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="15">
         <v>384</v>
       </c>
-      <c r="F47" s="14">
-        <v>0</v>
-      </c>
-      <c r="G47" s="16" t="s">
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2803,33 +2852,33 @@
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>1.02019120511191E+23</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="20">
         <v>43804.471678240698</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="16">
         <v>134.9</v>
       </c>
-      <c r="F49" s="15">
-        <v>0</v>
-      </c>
-      <c r="G49" s="17" t="s">
+      <c r="F49" s="16">
+        <v>0</v>
+      </c>
+      <c r="G49" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2837,12 +2886,12 @@
       <c r="A50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="150">
@@ -3043,22 +3092,22 @@
       <c r="A1" s="11">
         <v>1.02019120610421E+23</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="22">
+      <c r="C1" s="31">
         <v>43805.445949074077</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3066,33 +3115,33 @@
       <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1.02019120610414E+23</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="25">
         <v>43805.445625</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3100,33 +3149,33 @@
       <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1.0201912061040999E+23</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="31">
         <v>43805.445138888892</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3134,33 +3183,33 @@
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>1.02019120610403E+23</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="25">
         <v>43805.444849537038</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3168,33 +3217,33 @@
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>1.0201912061039201E+23</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="31">
         <v>43805.444027777776</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3202,33 +3251,33 @@
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>1.0201912061038999E+23</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="25">
         <v>43805.443761574075</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3236,33 +3285,33 @@
       <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>1.02019120610383E+23</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="31">
         <v>43805.443414351852</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3270,33 +3319,33 @@
       <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>1.0201912061038E+23</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="25">
         <v>43805.443101851852</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3304,33 +3353,33 @@
       <c r="A16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1.0201912061037199E+23</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="31">
         <v>43805.442627314813</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3338,33 +3387,33 @@
       <c r="A18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>1.0201912061037E+23</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="25">
         <v>43805.442384259259</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3372,33 +3421,33 @@
       <c r="A20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>1.02019120610361E+23</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="31">
         <v>43805.441793981481</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3406,12 +3455,12 @@
       <c r="A22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -3505,6 +3554,412 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23249E1-6D5A-449A-8508-1020CA28889A}">
   <dimension ref="A1:H15"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="14">
+        <v>43806.408993055556</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1">
+        <v>403</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="14">
+        <v>43806.408750000002</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>1061</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="14">
+        <v>43806.408506944441</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>483</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43806.408263888887</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>421</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="14">
+        <v>43806.407997685186</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>91.9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="14">
+        <v>43806.407627314817</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>338</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="14">
+        <v>43806.407361111109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>541</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="14">
+        <v>43806.407094907408</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>302</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="14">
+        <v>43806.387013888889</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>730</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="14">
+        <v>43806.386678240742</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>224</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="14">
+        <v>43806.386423611111</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>398</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="14">
+        <v>43806.385983796295</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>351</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="14">
+        <v>43806.385347222225</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>614</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="14">
+        <v>43806.385057870371</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>511</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="14">
+        <v>43806.384212962963</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>192</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0638AF0C-6E00-4B18-984E-F40804426F16}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
@@ -3513,7 +3968,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>37</v>
@@ -3521,14 +3976,14 @@
       <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="35">
-        <v>43806.408993055556</v>
+      <c r="D1" s="14">
+        <v>43807.498090277775</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F1">
-        <v>403</v>
+        <v>689</v>
       </c>
       <c r="G1" t="s">
         <v>25</v>
@@ -3539,7 +3994,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -3547,14 +4002,14 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="35">
-        <v>43806.408750000002</v>
+      <c r="D2" s="14">
+        <v>43807.497800925928</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>1061</v>
+        <v>388</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -3565,7 +4020,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -3573,14 +4028,14 @@
       <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="35">
-        <v>43806.408506944441</v>
+      <c r="D3" s="14">
+        <v>43807.497546296298</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>483</v>
+        <v>486.9</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -3591,7 +4046,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -3599,14 +4054,14 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="35">
-        <v>43806.408263888887</v>
+      <c r="D4" s="14">
+        <v>43807.497245370374</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>421</v>
+        <v>573</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -3617,7 +4072,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -3625,14 +4080,14 @@
       <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="35">
-        <v>43806.407997685186</v>
+      <c r="D5" s="14">
+        <v>43807.496990740743</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>91.9</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -3643,7 +4098,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -3651,14 +4106,14 @@
       <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="35">
-        <v>43806.407627314817</v>
+      <c r="D6" s="14">
+        <v>43807.496736111112</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -3669,7 +4124,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -3677,14 +4132,14 @@
       <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="35">
-        <v>43806.407361111109</v>
+      <c r="D7" s="14">
+        <v>43807.496446759258</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>541</v>
+        <v>247.9</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
@@ -3695,7 +4150,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -3703,14 +4158,14 @@
       <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="35">
-        <v>43806.407094907408</v>
+      <c r="D8" s="14">
+        <v>43807.496076388888</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8">
-        <v>302</v>
+        <v>643.9</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
@@ -3721,7 +4176,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -3729,14 +4184,14 @@
       <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="35">
-        <v>43806.387013888889</v>
+      <c r="D9" s="14">
+        <v>43807.495486111111</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>730</v>
+        <v>977.9</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
@@ -3747,7 +4202,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -3755,14 +4210,14 @@
       <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="35">
-        <v>43806.386678240742</v>
+      <c r="D10" s="14">
+        <v>43807.495069444441</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F10">
-        <v>224</v>
+        <v>445</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
@@ -3773,7 +4228,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -3781,14 +4236,14 @@
       <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="35">
-        <v>43806.386423611111</v>
+      <c r="D11" s="14">
+        <v>43807.494826388887</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>398</v>
+        <v>1048</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
@@ -3799,7 +4254,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -3807,14 +4262,14 @@
       <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="35">
-        <v>43806.385983796295</v>
+      <c r="D12" s="14">
+        <v>43807.494571759256</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
@@ -3825,7 +4280,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -3833,14 +4288,14 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="35">
-        <v>43806.385347222225</v>
+      <c r="D13" s="14">
+        <v>43807.494317129633</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <v>614</v>
+        <v>520</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
@@ -3851,7 +4306,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -3859,14 +4314,14 @@
       <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="35">
-        <v>43806.385057870371</v>
+      <c r="D14" s="14">
+        <v>43807.493993055556</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>511</v>
+        <v>349</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
@@ -3877,7 +4332,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -3885,14 +4340,14 @@
       <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="35">
-        <v>43806.384212962963</v>
+      <c r="D15" s="14">
+        <v>43807.493680555555</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F15">
-        <v>192</v>
+        <v>2578</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
@@ -3901,8 +4356,34 @@
         <v>9</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="14">
+        <v>43807.493206018517</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>514.79999999999995</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/s_d/feedit12月.xlsx
+++ b/s_d/feedit12月.xlsx
@@ -279,11 +279,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -328,14 +328,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,22 +356,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -372,46 +364,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,17 +388,55 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -456,6 +448,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -484,13 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFF9F9F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9F9F9"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,31 +502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,13 +526,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,103 +586,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,13 +616,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,17 +717,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +764,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -769,21 +784,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,8 +806,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,10 +819,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,16 +831,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -849,119 +849,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,6 +989,60 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1001,59 +1055,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1415,469 +1427,469 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="27">
         <v>1.02019120220063e+23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="28">
         <v>43801.8378703704</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="29">
         <v>253</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="29">
+        <v>0</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
+      <c r="A3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="5">
+      <c r="A4" s="31">
         <v>1.02019120220061e+23</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="32">
         <v>43801.8376388889</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="33">
         <v>756</v>
       </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="33">
+        <v>0</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="27">
         <v>1.02019120220054e+23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="28">
         <v>43801.8373726852</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="29">
         <v>242</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="29">
+        <v>0</v>
+      </c>
+      <c r="G6" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="5">
+      <c r="A8" s="31">
         <v>1.02019120220014e+23</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="32">
         <v>43801.8345486111</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="33">
         <v>219</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="33">
+        <v>0</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5"/>
+      <c r="A9" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="27">
         <v>1.0201912022001e+23</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="28">
         <v>43801.8341319444</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="29">
         <v>110</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="29">
+        <v>0</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
+      <c r="A11" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="5">
+      <c r="A12" s="31">
         <v>1.02019120220001e+23</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="32">
         <v>43801.8334837963</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="33">
         <v>76.9</v>
       </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="33">
+        <v>0</v>
+      </c>
+      <c r="G12" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="1">
+      <c r="A14" s="27">
         <v>1.02019120219585e+23</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="28">
         <v>43801.8326157407</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="29">
         <v>374.9</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="29">
+        <v>0</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
+      <c r="A15" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="5">
+      <c r="A16" s="31">
         <v>1.02019120219573e+23</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="32">
         <v>43801.8316087963</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="33">
         <v>1003</v>
       </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="33">
+        <v>0</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5"/>
+      <c r="A17" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="1">
+      <c r="A18" s="27">
         <v>1.02019120219552e+23</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="28">
         <v>43801.8301157407</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="29">
         <v>175</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="29">
+        <v>0</v>
+      </c>
+      <c r="G18" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1"/>
+      <c r="A19" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="5">
+      <c r="A20" s="31">
         <v>1.02019120219543e+23</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="32">
         <v>43801.8295949074</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="33">
         <v>270</v>
       </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="33">
+        <v>0</v>
+      </c>
+      <c r="G20" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="5"/>
+      <c r="A21" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="1">
+      <c r="A22" s="27">
         <v>1.02019120219515e+23</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="28">
         <v>43801.8276851852</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="29">
         <v>155</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="F22" s="29">
+        <v>0</v>
+      </c>
+      <c r="G22" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="1"/>
+      <c r="A23" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="5">
+      <c r="A24" s="31">
         <v>1.02019120219512e+23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="32">
         <v>43801.8273958333</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="33">
         <v>230</v>
       </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="33">
+        <v>0</v>
+      </c>
+      <c r="G24" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="5"/>
+      <c r="A25" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="1">
+      <c r="A26" s="27">
         <v>1.02019120219503e+23</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="28">
         <v>43801.8267708333</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="29">
         <v>262</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="F26" s="29">
+        <v>0</v>
+      </c>
+      <c r="G26" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="78">
@@ -1993,514 +2005,514 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="1">
+      <c r="A1" s="27">
         <v>1.0201912031352e+23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="28">
         <v>43802.5778356481</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="29">
         <v>457</v>
       </c>
-      <c r="F1" s="3">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="29">
+        <v>0</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="5">
+      <c r="A3" s="31">
         <v>1.02019120313514e+23</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="32">
         <v>43802.5776041667</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="33">
         <v>311.9</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="33">
+        <v>0</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="27">
         <v>1.02019120313512e+23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="28">
         <v>43802.5773726852</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="29">
         <v>566</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="29">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="31">
         <v>1.0201912031351e+23</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="32">
         <v>43802.5771527778</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="33">
         <v>581.9</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="33">
+        <v>0</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="27">
         <v>1.02019120313504e+23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="28">
         <v>43802.5768634259</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="29">
         <v>570</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="31">
         <v>1.02019120313501e+23</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="32">
         <v>43802.5765856481</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="33">
         <v>357</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="33">
+        <v>0</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="27">
         <v>1.02019120313495e+23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="28">
         <v>43802.5762962963</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="29">
         <v>244.9</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="29">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
+      <c r="A14" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="5">
+      <c r="A15" s="31">
         <v>1.02019120313493e+23</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="32">
         <v>43802.5760532407</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="33">
         <v>296</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="33">
+        <v>0</v>
+      </c>
+      <c r="G15" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="27">
         <v>1.0201912031349e+23</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="28">
         <v>43802.5756944444</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="29">
         <v>514</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="29">
+        <v>0</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="5">
+      <c r="A19" s="31">
         <v>1.02019120313483e+23</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="32">
         <v>43802.5753703704</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="33">
         <v>146.9</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="33">
+        <v>0</v>
+      </c>
+      <c r="G19" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
+      <c r="A20" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="1">
+      <c r="A21" s="27">
         <v>1.02019120313481e+23</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="28">
         <v>43802.5751388889</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="29">
         <v>537</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="29">
+        <v>0</v>
+      </c>
+      <c r="G21" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1"/>
+      <c r="A22" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="5">
+      <c r="A23" s="31">
         <v>1.02019120313475e+23</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="32">
         <v>43802.5748958333</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="33">
         <v>101</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="33">
+        <v>0</v>
+      </c>
+      <c r="G23" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
+      <c r="A24" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="1">
+      <c r="A25" s="27">
         <v>1.02019120313473e+23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="28">
         <v>43802.5746527778</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="29">
         <v>805</v>
       </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="F25" s="29">
+        <v>0</v>
+      </c>
+      <c r="G25" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="5">
+      <c r="A27" s="31">
         <v>1.02019120313464e+23</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="32">
         <v>43802.5740856481</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="33">
         <v>807</v>
       </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="33">
+        <v>0</v>
+      </c>
+      <c r="G27" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="5"/>
+      <c r="A28" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="5">
+      <c r="A29" s="31">
         <v>1.02019120313461e+23</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="32">
         <v>43802.5738078704</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="33">
         <v>389</v>
       </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="F29" s="33">
+        <v>0</v>
+      </c>
+      <c r="G29" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="5"/>
+      <c r="A30" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -2630,854 +2642,854 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="1">
+      <c r="A1" s="27">
         <v>1.0201912051129e+23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="28">
         <v>43804.4785069444</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="29">
         <v>302.9</v>
       </c>
-      <c r="F1" s="3">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="29">
+        <v>0</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="5">
+      <c r="A3" s="31">
         <v>1.02019120511284e+23</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="32">
         <v>43804.4782638889</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="33">
         <v>691</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="33">
+        <v>0</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="27">
         <v>1.02019120511281e+23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="28">
         <v>43804.477974537</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="29">
         <v>507</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="29">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="31">
         <v>1.02019120511274e+23</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="32">
         <v>43804.4776273148</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="33">
         <v>464</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="33">
+        <v>0</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="27">
         <v>1.02019120511271e+23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="28">
         <v>43804.4772800926</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="29">
         <v>628</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="31">
         <v>1.02019120511264e+23</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="32">
         <v>43804.4769560185</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="33">
         <v>1482</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="33">
+        <v>0</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="27">
         <v>1.02019120511261e+23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="28">
         <v>43804.4765625</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="29">
         <v>327</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="29">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
+      <c r="A14" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A15" s="5">
+      <c r="A15" s="31">
         <v>1.02019120511255e+23</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="32">
         <v>43804.4763310185</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="33">
         <v>753</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="33">
+        <v>0</v>
+      </c>
+      <c r="G15" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="27">
         <v>1.02019120511253e+23</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="28">
         <v>43804.476087963</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="29">
         <v>571</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="29">
+        <v>0</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A19" s="5">
+      <c r="A19" s="31">
         <v>1.02019120511251e+23</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="32">
         <v>43804.4758333333</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="33">
         <v>701</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="33">
+        <v>0</v>
+      </c>
+      <c r="G19" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
+      <c r="A20" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A21" s="1">
+      <c r="A21" s="27">
         <v>1.02019120511245e+23</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="28">
         <v>43804.4755787037</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="29">
         <v>168</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="29">
+        <v>0</v>
+      </c>
+      <c r="G21" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1"/>
+      <c r="A22" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="5">
+      <c r="A23" s="31">
         <v>1.02019120511243e+23</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="32">
         <v>43804.4753472222</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="33">
         <v>595.9</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="33">
+        <v>0</v>
+      </c>
+      <c r="G23" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
+      <c r="A24" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="1">
+      <c r="A25" s="27">
         <v>1.0201912051124e+23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="28">
         <v>43804.4751041667</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="29">
         <v>522</v>
       </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="F25" s="29">
+        <v>0</v>
+      </c>
+      <c r="G25" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="5">
+      <c r="A27" s="31">
         <v>1.02019120511234e+23</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="32">
         <v>43804.4748263889</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="33">
         <v>244</v>
       </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="33">
+        <v>0</v>
+      </c>
+      <c r="G27" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="5"/>
+      <c r="A28" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="5">
+      <c r="A29" s="31">
         <v>1.02019120511232e+23</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="32">
         <v>43804.4745949074</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="33">
         <v>1129</v>
       </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="F29" s="33">
+        <v>0</v>
+      </c>
+      <c r="G29" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="5"/>
+      <c r="A30" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="31"/>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="1">
+      <c r="A31" s="27">
         <v>1.0201912051123e+23</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="28">
         <v>43804.4743402778</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="29">
         <v>249</v>
       </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="F31" s="29">
+        <v>0</v>
+      </c>
+      <c r="G31" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="1"/>
+      <c r="A32" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="5">
+      <c r="A33" s="31">
         <v>1.02019120511224e+23</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="32">
         <v>43804.4741087963</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="33">
         <v>289</v>
       </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="F33" s="33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="5"/>
+      <c r="A34" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="1">
+      <c r="A35" s="27">
         <v>1.02019120511221e+23</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="28">
         <v>43804.4737962963</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="29">
         <v>226</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="F35" s="29">
+        <v>0</v>
+      </c>
+      <c r="G35" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="1"/>
+      <c r="A36" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="27"/>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="5">
+      <c r="A37" s="31">
         <v>1.02019120511215e+23</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="32">
         <v>43804.4735532407</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="33">
         <v>227</v>
       </c>
-      <c r="F37" s="7">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5" t="s">
+      <c r="F37" s="33">
+        <v>0</v>
+      </c>
+      <c r="G37" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="5"/>
+      <c r="A38" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="31"/>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="1">
+      <c r="A39" s="27">
         <v>1.02019120511213e+23</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="28">
         <v>43804.4733217593</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="29">
         <v>487</v>
       </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="F39" s="29">
+        <v>0</v>
+      </c>
+      <c r="G39" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="1"/>
+      <c r="A40" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="27"/>
     </row>
     <row r="41" ht="14.25" spans="1:7">
-      <c r="A41" s="5">
+      <c r="A41" s="31">
         <v>1.02019120511211e+23</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="32">
         <v>43804.4730902778</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="33">
         <v>163.8</v>
       </c>
-      <c r="F41" s="7">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5" t="s">
+      <c r="F41" s="33">
+        <v>0</v>
+      </c>
+      <c r="G41" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:7">
-      <c r="A42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="5"/>
+      <c r="A42" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="31"/>
     </row>
     <row r="43" ht="14.25" spans="1:7">
-      <c r="A43" s="1">
+      <c r="A43" s="27">
         <v>1.02019120511205e+23</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="28">
         <v>43804.4728587963</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="29">
         <v>375.6</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="F43" s="29">
+        <v>0</v>
+      </c>
+      <c r="G43" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:7">
-      <c r="A44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="1"/>
+      <c r="A44" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="27"/>
     </row>
     <row r="45" ht="14.25" spans="1:7">
-      <c r="A45" s="5">
+      <c r="A45" s="31">
         <v>1.02019120511203e+23</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="32">
         <v>43804.4726041667</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="33">
         <v>736</v>
       </c>
-      <c r="F45" s="7">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5" t="s">
+      <c r="F45" s="33">
+        <v>0</v>
+      </c>
+      <c r="G45" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:7">
-      <c r="A46" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="5"/>
+      <c r="A46" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="31"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="31"/>
     </row>
     <row r="47" ht="14.25" spans="1:7">
-      <c r="A47" s="1">
+      <c r="A47" s="27">
         <v>1.020191205112e+23</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="28">
         <v>43804.4722569444</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="29">
         <v>384</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="F47" s="29">
+        <v>0</v>
+      </c>
+      <c r="G47" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="1"/>
+      <c r="A48" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="5">
+      <c r="A49" s="31">
         <v>1.02019120511191e+23</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="32">
         <v>43804.4716782407</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="33">
         <v>134.9</v>
       </c>
-      <c r="F49" s="7">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5" t="s">
+      <c r="F49" s="33">
+        <v>0</v>
+      </c>
+      <c r="G49" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="5"/>
+      <c r="A50" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="31"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="150">
@@ -3676,378 +3688,378 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="14">
+      <c r="A1" s="10">
         <v>1.02019120610421e+23</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="11">
         <v>43805.4459490741</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="21">
+      <c r="A3" s="17">
         <v>1.02019120610414e+23</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="18">
         <v>43805.445625</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="A4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="14">
+      <c r="A5" s="10">
         <v>1.0201912061041e+23</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="11">
         <v>43805.4451388889</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="21">
+      <c r="A7" s="17">
         <v>1.02019120610403e+23</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="18">
         <v>43805.444849537</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="A8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="14">
+      <c r="A9" s="10">
         <v>1.02019120610392e+23</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>43805.4440277778</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="21">
+      <c r="A11" s="17">
         <v>1.0201912061039e+23</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="18">
         <v>43805.4437615741</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="A12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="14">
+      <c r="A13" s="10">
         <v>1.02019120610383e+23</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="11">
         <v>43805.4434143519</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="A14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="21">
+      <c r="A15" s="17">
         <v>1.0201912061038e+23</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="18">
         <v>43805.4431018519</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="A16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="14">
+      <c r="A17" s="10">
         <v>1.02019120610372e+23</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="11">
         <v>43805.4426273148</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="A18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="21">
+      <c r="A19" s="17">
         <v>1.0201912061037e+23</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="18">
         <v>43805.4423842593</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="A20" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="14">
+      <c r="A21" s="10">
         <v>1.02019120610361e+23</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="11">
         <v>43805.4417939815</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="A22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -4158,7 +4170,7 @@
       <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="9">
         <v>43806.4089930556</v>
       </c>
       <c r="E1" t="s">
@@ -4184,7 +4196,7 @@
       <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="9">
         <v>43806.40875</v>
       </c>
       <c r="E2" t="s">
@@ -4210,7 +4222,7 @@
       <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="9">
         <v>43806.4085069444</v>
       </c>
       <c r="E3" t="s">
@@ -4236,7 +4248,7 @@
       <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="9">
         <v>43806.4082638889</v>
       </c>
       <c r="E4" t="s">
@@ -4262,7 +4274,7 @@
       <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <v>43806.4079976852</v>
       </c>
       <c r="E5" t="s">
@@ -4288,7 +4300,7 @@
       <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <v>43806.4076273148</v>
       </c>
       <c r="E6" t="s">
@@ -4314,7 +4326,7 @@
       <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="9">
         <v>43806.4073611111</v>
       </c>
       <c r="E7" t="s">
@@ -4340,7 +4352,7 @@
       <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="9">
         <v>43806.4070949074</v>
       </c>
       <c r="E8" t="s">
@@ -4366,7 +4378,7 @@
       <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="9">
         <v>43806.3870138889</v>
       </c>
       <c r="E9" t="s">
@@ -4392,7 +4404,7 @@
       <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
         <v>43806.3866782407</v>
       </c>
       <c r="E10" t="s">
@@ -4418,7 +4430,7 @@
       <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="9">
         <v>43806.3864236111</v>
       </c>
       <c r="E11" t="s">
@@ -4444,7 +4456,7 @@
       <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="9">
         <v>43806.3859837963</v>
       </c>
       <c r="E12" t="s">
@@ -4470,7 +4482,7 @@
       <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="9">
         <v>43806.3853472222</v>
       </c>
       <c r="E13" t="s">
@@ -4496,7 +4508,7 @@
       <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="9">
         <v>43806.3850578704</v>
       </c>
       <c r="E14" t="s">
@@ -4522,7 +4534,7 @@
       <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="9">
         <v>43806.384212963</v>
       </c>
       <c r="E15" t="s">
@@ -4568,7 +4580,7 @@
       <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="9">
         <v>43807.4980902778</v>
       </c>
       <c r="E1" t="s">
@@ -4594,7 +4606,7 @@
       <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="9">
         <v>43807.4978009259</v>
       </c>
       <c r="E2" t="s">
@@ -4620,7 +4632,7 @@
       <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="9">
         <v>43807.4975462963</v>
       </c>
       <c r="E3" t="s">
@@ -4646,7 +4658,7 @@
       <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="9">
         <v>43807.4972453704</v>
       </c>
       <c r="E4" t="s">
@@ -4672,7 +4684,7 @@
       <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <v>43807.4969907407</v>
       </c>
       <c r="E5" t="s">
@@ -4698,7 +4710,7 @@
       <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <v>43807.4967361111</v>
       </c>
       <c r="E6" t="s">
@@ -4724,7 +4736,7 @@
       <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="9">
         <v>43807.4964467593</v>
       </c>
       <c r="E7" t="s">
@@ -4750,7 +4762,7 @@
       <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="9">
         <v>43807.4960763889</v>
       </c>
       <c r="E8" t="s">
@@ -4776,7 +4788,7 @@
       <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="9">
         <v>43807.4954861111</v>
       </c>
       <c r="E9" t="s">
@@ -4802,7 +4814,7 @@
       <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
         <v>43807.4950694444</v>
       </c>
       <c r="E10" t="s">
@@ -4828,7 +4840,7 @@
       <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="9">
         <v>43807.4948263889</v>
       </c>
       <c r="E11" t="s">
@@ -4854,7 +4866,7 @@
       <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="9">
         <v>43807.4945717593</v>
       </c>
       <c r="E12" t="s">
@@ -4880,7 +4892,7 @@
       <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="9">
         <v>43807.4943171296</v>
       </c>
       <c r="E13" t="s">
@@ -4906,7 +4918,7 @@
       <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="9">
         <v>43807.4939930556</v>
       </c>
       <c r="E14" t="s">
@@ -4932,7 +4944,7 @@
       <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="9">
         <v>43807.4936805556</v>
       </c>
       <c r="E15" t="s">
@@ -4958,7 +4970,7 @@
       <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="9">
         <v>43807.4932060185</v>
       </c>
       <c r="E16" t="s">
@@ -4986,26 +4998,26 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:G30"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:7">
+    <row r="1" ht="18" customHeight="1" spans="1:7">
       <c r="A1" s="1">
-        <v>1.02019120910473e+23</v>
+        <v>1.02019120914444e+23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2">
-        <v>43808.4496990741</v>
+        <v>43808.6143981482</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="3">
-        <v>201.9</v>
+        <v>149</v>
       </c>
       <c r="F1" s="3">
         <v>0</v>
@@ -5025,481 +5037,481 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="5">
+    <row r="3" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A3" s="1">
+        <v>1.02019120910473e+23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43808.4496990741</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>201.9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A5" s="5">
         <v>1.0201912091047e+23</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="6">
         <v>43808.449375</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E5" s="7">
         <v>575</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="1">
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A7" s="1">
         <v>1.0201912091046e+23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="2">
         <v>43808.4486689815</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E7" s="3">
         <v>216.7</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="5">
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A9" s="5">
         <v>1.02019120910454e+23</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="6">
         <v>43808.4483796296</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E9" s="7">
         <v>318</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="1">
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A11" s="1">
         <v>1.02019120910451e+23</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2">
         <v>43808.4481134259</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E11" s="3">
         <v>437</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="5">
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A13" s="5">
         <v>1.02019120910444e+23</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="6">
         <v>43808.4477546296</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E13" s="7">
         <v>632</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="1">
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A15" s="1">
         <v>1.02019120910432e+23</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="2">
         <v>43808.4468055556</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E15" s="3">
         <v>307.9</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="5">
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:7">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A17" s="5">
         <v>1.02019120910425e+23</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="6">
         <v>43808.4465162037</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E17" s="7">
         <v>1509</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="1">
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A19" s="1">
         <v>1.02019120910423e+23</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2">
         <v>43808.4462847222</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E19" s="3">
         <v>254</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="5">
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A21" s="5">
         <v>1.02019120910421e+23</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="6">
         <v>43808.4460532407</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E21" s="7">
         <v>280.9</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="1">
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A23" s="1">
         <v>1.02019120910415e+23</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="2">
         <v>43808.4457986111</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E23" s="3">
         <v>241.9</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="5">
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A25" s="5">
         <v>1.02019120910412e+23</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="6">
         <v>43808.4453703704</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E25" s="7">
         <v>447</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="1">
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
+      <c r="A26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:7">
+      <c r="A27" s="1">
         <v>1.0201912091038e+23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="2">
         <v>43808.4430902778</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E27" s="3">
         <v>94.8</v>
       </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="5">
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="1">
         <v>1.02019120910372e+23</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="2">
         <v>43808.4426041667</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E29" s="3">
         <v>633</v>
       </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="9">
-        <v>1.02019120914444e+23</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="10">
-        <v>43808.6143981482</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="11">
-        <v>149</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -5595,21 +5607,21 @@
     <mergeCell ref="G29:G30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4315"/>
-    <hyperlink ref="A4" r:id="rId2" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4314"/>
-    <hyperlink ref="A6" r:id="rId3" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4313"/>
-    <hyperlink ref="A8" r:id="rId4" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4312"/>
-    <hyperlink ref="A10" r:id="rId5" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4311"/>
-    <hyperlink ref="A12" r:id="rId6" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4310"/>
-    <hyperlink ref="A14" r:id="rId7" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4309"/>
-    <hyperlink ref="A16" r:id="rId8" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4308"/>
-    <hyperlink ref="A18" r:id="rId9" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4307"/>
-    <hyperlink ref="A20" r:id="rId10" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4306"/>
-    <hyperlink ref="A22" r:id="rId11" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4305"/>
-    <hyperlink ref="A24" r:id="rId12" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4304"/>
-    <hyperlink ref="A26" r:id="rId13" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4303"/>
-    <hyperlink ref="A28" r:id="rId14" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4302"/>
-    <hyperlink ref="A30" r:id="rId15" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4317"/>
+    <hyperlink ref="A2" r:id="rId1" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4317"/>
+    <hyperlink ref="A4" r:id="rId2" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4315"/>
+    <hyperlink ref="A6" r:id="rId3" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4314"/>
+    <hyperlink ref="A8" r:id="rId4" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4313"/>
+    <hyperlink ref="A10" r:id="rId5" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4312"/>
+    <hyperlink ref="A12" r:id="rId6" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4311"/>
+    <hyperlink ref="A14" r:id="rId7" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4310"/>
+    <hyperlink ref="A16" r:id="rId8" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4309"/>
+    <hyperlink ref="A18" r:id="rId9" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4308"/>
+    <hyperlink ref="A20" r:id="rId10" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4307"/>
+    <hyperlink ref="A22" r:id="rId11" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4306"/>
+    <hyperlink ref="A24" r:id="rId12" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4305"/>
+    <hyperlink ref="A26" r:id="rId13" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4304"/>
+    <hyperlink ref="A28" r:id="rId14" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4303"/>
+    <hyperlink ref="A30" r:id="rId15" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4302"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/s_d/feedit12月.xlsx
+++ b/s_d/feedit12月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="12.2" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="12.7" sheetId="5" r:id="rId5"/>
     <sheet name="12.8" sheetId="6" r:id="rId6"/>
     <sheet name="12.9" sheetId="7" r:id="rId7"/>
+    <sheet name="12.10" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="69">
   <si>
     <t>订单编号</t>
   </si>
@@ -279,11 +280,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -328,7 +329,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,15 +343,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,16 +364,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,47 +381,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -449,15 +442,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,13 +485,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9F9F9"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFF9F9F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,13 +503,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,19 +569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,7 +587,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,25 +623,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,84 +684,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,8 +718,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,17 +759,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,24 +780,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,15 +812,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -819,10 +820,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,16 +832,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -849,115 +850,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,9 +990,54 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1013,59 +1059,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1450,446 +1451,446 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="27">
+      <c r="A2" s="13">
         <v>1.02019120220063e+23</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="B2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="14">
         <v>43801.8378703704</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="15">
         <v>253</v>
       </c>
-      <c r="F2" s="29">
-        <v>0</v>
-      </c>
-      <c r="G2" s="27" t="s">
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="27"/>
+      <c r="A3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="31">
+      <c r="A4" s="9">
         <v>1.02019120220061e+23</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="32">
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10">
         <v>43801.8376388889</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="11">
         <v>756</v>
       </c>
-      <c r="F4" s="33">
-        <v>0</v>
-      </c>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="31"/>
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="27">
+      <c r="A6" s="13">
         <v>1.02019120220054e+23</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="28">
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="14">
         <v>43801.8373726852</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="15">
         <v>242</v>
       </c>
-      <c r="F6" s="29">
-        <v>0</v>
-      </c>
-      <c r="G6" s="27" t="s">
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="27"/>
+      <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="31">
+      <c r="A8" s="9">
         <v>1.02019120220014e+23</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="32">
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10">
         <v>43801.8345486111</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="11">
         <v>219</v>
       </c>
-      <c r="F8" s="33">
-        <v>0</v>
-      </c>
-      <c r="G8" s="31" t="s">
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="31"/>
+      <c r="A9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="27">
+      <c r="A10" s="13">
         <v>1.0201912022001e+23</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14">
         <v>43801.8341319444</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="15">
         <v>110</v>
       </c>
-      <c r="F10" s="29">
-        <v>0</v>
-      </c>
-      <c r="G10" s="27" t="s">
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="27"/>
+      <c r="A11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="31">
+      <c r="A12" s="9">
         <v>1.02019120220001e+23</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="32">
+      <c r="B12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10">
         <v>43801.8334837963</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="11">
         <v>76.9</v>
       </c>
-      <c r="F12" s="33">
-        <v>0</v>
-      </c>
-      <c r="G12" s="31" t="s">
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="31"/>
+      <c r="A13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="27">
+      <c r="A14" s="13">
         <v>1.02019120219585e+23</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="14">
         <v>43801.8326157407</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="15">
         <v>374.9</v>
       </c>
-      <c r="F14" s="29">
-        <v>0</v>
-      </c>
-      <c r="G14" s="27" t="s">
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="27"/>
+      <c r="A15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="31">
+      <c r="A16" s="9">
         <v>1.02019120219573e+23</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10">
         <v>43801.8316087963</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="11">
         <v>1003</v>
       </c>
-      <c r="F16" s="33">
-        <v>0</v>
-      </c>
-      <c r="G16" s="31" t="s">
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="31"/>
+      <c r="A17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="27">
+      <c r="A18" s="13">
         <v>1.02019120219552e+23</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="28">
+      <c r="B18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="14">
         <v>43801.8301157407</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="15">
         <v>175</v>
       </c>
-      <c r="F18" s="29">
-        <v>0</v>
-      </c>
-      <c r="G18" s="27" t="s">
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="27"/>
+      <c r="A19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="31">
+      <c r="A20" s="9">
         <v>1.02019120219543e+23</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="32">
+      <c r="B20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="10">
         <v>43801.8295949074</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="11">
         <v>270</v>
       </c>
-      <c r="F20" s="33">
-        <v>0</v>
-      </c>
-      <c r="G20" s="31" t="s">
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="31"/>
+      <c r="A21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="27">
+      <c r="A22" s="13">
         <v>1.02019120219515e+23</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="28">
+      <c r="B22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="14">
         <v>43801.8276851852</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="15">
         <v>155</v>
       </c>
-      <c r="F22" s="29">
-        <v>0</v>
-      </c>
-      <c r="G22" s="27" t="s">
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="27"/>
+      <c r="A23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="31">
+      <c r="A24" s="9">
         <v>1.02019120219512e+23</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="32">
+      <c r="B24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="10">
         <v>43801.8273958333</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="11">
         <v>230</v>
       </c>
-      <c r="F24" s="33">
-        <v>0</v>
-      </c>
-      <c r="G24" s="31" t="s">
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="31"/>
+      <c r="A25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="27">
+      <c r="A26" s="13">
         <v>1.02019120219503e+23</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="28">
+      <c r="B26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14">
         <v>43801.8267708333</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="15">
         <v>262</v>
       </c>
-      <c r="F26" s="29">
-        <v>0</v>
-      </c>
-      <c r="G26" s="27" t="s">
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="27"/>
+      <c r="A27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="78">
@@ -2005,514 +2006,514 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="27">
+      <c r="A1" s="13">
         <v>1.0201912031352e+23</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="28">
+      <c r="B1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14">
         <v>43802.5778356481</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="29">
+      <c r="E1" s="15">
         <v>457</v>
       </c>
-      <c r="F1" s="29">
-        <v>0</v>
-      </c>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="15">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="27"/>
+      <c r="A2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="31">
+      <c r="A3" s="9">
         <v>1.02019120313514e+23</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="32">
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
         <v>43802.5776041667</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="11">
         <v>311.9</v>
       </c>
-      <c r="F3" s="33">
-        <v>0</v>
-      </c>
-      <c r="G3" s="31" t="s">
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="31"/>
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="27">
+      <c r="A5" s="13">
         <v>1.02019120313512e+23</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14">
         <v>43802.5773726852</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="15">
         <v>566</v>
       </c>
-      <c r="F5" s="29">
-        <v>0</v>
-      </c>
-      <c r="G5" s="27" t="s">
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="27"/>
+      <c r="A6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="31">
+      <c r="A7" s="9">
         <v>1.0201912031351e+23</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="32">
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10">
         <v>43802.5771527778</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="11">
         <v>581.9</v>
       </c>
-      <c r="F7" s="33">
-        <v>0</v>
-      </c>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="31"/>
+      <c r="A8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="27">
+      <c r="A9" s="13">
         <v>1.02019120313504e+23</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="28">
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14">
         <v>43802.5768634259</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="15">
         <v>570</v>
       </c>
-      <c r="F9" s="29">
-        <v>0</v>
-      </c>
-      <c r="G9" s="27" t="s">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="27"/>
+      <c r="A10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="31">
+      <c r="A11" s="9">
         <v>1.02019120313501e+23</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="32">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10">
         <v>43802.5765856481</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="11">
         <v>357</v>
       </c>
-      <c r="F11" s="33">
-        <v>0</v>
-      </c>
-      <c r="G11" s="31" t="s">
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="31"/>
+      <c r="A12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="27">
+      <c r="A13" s="13">
         <v>1.02019120313495e+23</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14">
         <v>43802.5762962963</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="15">
         <v>244.9</v>
       </c>
-      <c r="F13" s="29">
-        <v>0</v>
-      </c>
-      <c r="G13" s="27" t="s">
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="27"/>
+      <c r="A14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="31">
+      <c r="A15" s="9">
         <v>1.02019120313493e+23</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="32">
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10">
         <v>43802.5760532407</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="11">
         <v>296</v>
       </c>
-      <c r="F15" s="33">
-        <v>0</v>
-      </c>
-      <c r="G15" s="31" t="s">
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="31"/>
+      <c r="A16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="27">
+      <c r="A17" s="13">
         <v>1.0201912031349e+23</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="28">
+      <c r="B17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="14">
         <v>43802.5756944444</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="15">
         <v>514</v>
       </c>
-      <c r="F17" s="29">
-        <v>0</v>
-      </c>
-      <c r="G17" s="27" t="s">
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="27"/>
+      <c r="A18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="31">
+      <c r="A19" s="9">
         <v>1.02019120313483e+23</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="32">
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="10">
         <v>43802.5753703704</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="11">
         <v>146.9</v>
       </c>
-      <c r="F19" s="33">
-        <v>0</v>
-      </c>
-      <c r="G19" s="31" t="s">
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="31"/>
+      <c r="A20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="27">
+      <c r="A21" s="13">
         <v>1.02019120313481e+23</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="28">
+      <c r="B21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="14">
         <v>43802.5751388889</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="15">
         <v>537</v>
       </c>
-      <c r="F21" s="29">
-        <v>0</v>
-      </c>
-      <c r="G21" s="27" t="s">
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="27"/>
+      <c r="A22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="31">
+      <c r="A23" s="9">
         <v>1.02019120313475e+23</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="32">
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10">
         <v>43802.5748958333</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="11">
         <v>101</v>
       </c>
-      <c r="F23" s="33">
-        <v>0</v>
-      </c>
-      <c r="G23" s="31" t="s">
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="31"/>
+      <c r="A24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="27">
+      <c r="A25" s="13">
         <v>1.02019120313473e+23</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="28">
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="14">
         <v>43802.5746527778</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="15">
         <v>805</v>
       </c>
-      <c r="F25" s="29">
-        <v>0</v>
-      </c>
-      <c r="G25" s="27" t="s">
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="27"/>
+      <c r="A26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="31">
+      <c r="A27" s="9">
         <v>1.02019120313464e+23</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="32">
+      <c r="B27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10">
         <v>43802.5740856481</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="11">
         <v>807</v>
       </c>
-      <c r="F27" s="33">
-        <v>0</v>
-      </c>
-      <c r="G27" s="31" t="s">
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="31"/>
+      <c r="A28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="31">
+      <c r="A29" s="9">
         <v>1.02019120313461e+23</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="32">
+      <c r="B29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="10">
         <v>43802.5738078704</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="11">
         <v>389</v>
       </c>
-      <c r="F29" s="33">
-        <v>0</v>
-      </c>
-      <c r="G29" s="31" t="s">
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="31"/>
+      <c r="A30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -2642,854 +2643,854 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="27">
+      <c r="A1" s="13">
         <v>1.0201912051129e+23</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="28">
+      <c r="B1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14">
         <v>43804.4785069444</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="29">
+      <c r="E1" s="15">
         <v>302.9</v>
       </c>
-      <c r="F1" s="29">
-        <v>0</v>
-      </c>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="15">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="27"/>
+      <c r="A2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="31">
+      <c r="A3" s="9">
         <v>1.02019120511284e+23</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="32">
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
         <v>43804.4782638889</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="11">
         <v>691</v>
       </c>
-      <c r="F3" s="33">
-        <v>0</v>
-      </c>
-      <c r="G3" s="31" t="s">
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="31"/>
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="27">
+      <c r="A5" s="13">
         <v>1.02019120511281e+23</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14">
         <v>43804.477974537</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="15">
         <v>507</v>
       </c>
-      <c r="F5" s="29">
-        <v>0</v>
-      </c>
-      <c r="G5" s="27" t="s">
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="27"/>
+      <c r="A6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="31">
+      <c r="A7" s="9">
         <v>1.02019120511274e+23</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="32">
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10">
         <v>43804.4776273148</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="11">
         <v>464</v>
       </c>
-      <c r="F7" s="33">
-        <v>0</v>
-      </c>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="31"/>
+      <c r="A8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A9" s="27">
+      <c r="A9" s="13">
         <v>1.02019120511271e+23</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="28">
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14">
         <v>43804.4772800926</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="15">
         <v>628</v>
       </c>
-      <c r="F9" s="29">
-        <v>0</v>
-      </c>
-      <c r="G9" s="27" t="s">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="27"/>
+      <c r="A10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A11" s="31">
+      <c r="A11" s="9">
         <v>1.02019120511264e+23</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="32">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10">
         <v>43804.4769560185</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="11">
         <v>1482</v>
       </c>
-      <c r="F11" s="33">
-        <v>0</v>
-      </c>
-      <c r="G11" s="31" t="s">
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="31"/>
+      <c r="A12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="27">
+      <c r="A13" s="13">
         <v>1.02019120511261e+23</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14">
         <v>43804.4765625</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="15">
         <v>327</v>
       </c>
-      <c r="F13" s="29">
-        <v>0</v>
-      </c>
-      <c r="G13" s="27" t="s">
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="27"/>
+      <c r="A14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A15" s="31">
+      <c r="A15" s="9">
         <v>1.02019120511255e+23</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="32">
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10">
         <v>43804.4763310185</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="11">
         <v>753</v>
       </c>
-      <c r="F15" s="33">
-        <v>0</v>
-      </c>
-      <c r="G15" s="31" t="s">
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="31"/>
+      <c r="A16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A17" s="27">
+      <c r="A17" s="13">
         <v>1.02019120511253e+23</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="28">
+      <c r="B17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="14">
         <v>43804.476087963</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="15">
         <v>571</v>
       </c>
-      <c r="F17" s="29">
-        <v>0</v>
-      </c>
-      <c r="G17" s="27" t="s">
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="27"/>
+      <c r="A18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A19" s="31">
+      <c r="A19" s="9">
         <v>1.02019120511251e+23</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="32">
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="10">
         <v>43804.4758333333</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="11">
         <v>701</v>
       </c>
-      <c r="F19" s="33">
-        <v>0</v>
-      </c>
-      <c r="G19" s="31" t="s">
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="31"/>
+      <c r="A20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A21" s="27">
+      <c r="A21" s="13">
         <v>1.02019120511245e+23</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="28">
+      <c r="B21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="14">
         <v>43804.4755787037</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="15">
         <v>168</v>
       </c>
-      <c r="F21" s="29">
-        <v>0</v>
-      </c>
-      <c r="G21" s="27" t="s">
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="27"/>
+      <c r="A22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="31">
+      <c r="A23" s="9">
         <v>1.02019120511243e+23</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="32">
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10">
         <v>43804.4753472222</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="11">
         <v>595.9</v>
       </c>
-      <c r="F23" s="33">
-        <v>0</v>
-      </c>
-      <c r="G23" s="31" t="s">
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="31"/>
+      <c r="A24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="27">
+      <c r="A25" s="13">
         <v>1.0201912051124e+23</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="28">
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="14">
         <v>43804.4751041667</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="15">
         <v>522</v>
       </c>
-      <c r="F25" s="29">
-        <v>0</v>
-      </c>
-      <c r="G25" s="27" t="s">
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="27"/>
+      <c r="A26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="31">
+      <c r="A27" s="9">
         <v>1.02019120511234e+23</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="32">
+      <c r="B27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10">
         <v>43804.4748263889</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="11">
         <v>244</v>
       </c>
-      <c r="F27" s="33">
-        <v>0</v>
-      </c>
-      <c r="G27" s="31" t="s">
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="31"/>
+      <c r="A28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="31">
+      <c r="A29" s="9">
         <v>1.02019120511232e+23</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="32">
+      <c r="B29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="10">
         <v>43804.4745949074</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="11">
         <v>1129</v>
       </c>
-      <c r="F29" s="33">
-        <v>0</v>
-      </c>
-      <c r="G29" s="31" t="s">
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="31"/>
+      <c r="A30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="27">
+      <c r="A31" s="13">
         <v>1.0201912051123e+23</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="28">
+      <c r="B31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="14">
         <v>43804.4743402778</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="15">
         <v>249</v>
       </c>
-      <c r="F31" s="29">
-        <v>0</v>
-      </c>
-      <c r="G31" s="27" t="s">
+      <c r="F31" s="15">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="27"/>
+      <c r="A32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="31">
+      <c r="A33" s="9">
         <v>1.02019120511224e+23</v>
       </c>
-      <c r="B33" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="32">
+      <c r="B33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="10">
         <v>43804.4741087963</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="11">
         <v>289</v>
       </c>
-      <c r="F33" s="33">
-        <v>0</v>
-      </c>
-      <c r="G33" s="31" t="s">
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="31"/>
+      <c r="A34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="27">
+      <c r="A35" s="13">
         <v>1.02019120511221e+23</v>
       </c>
-      <c r="B35" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="28">
+      <c r="B35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="14">
         <v>43804.4737962963</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="15">
         <v>226</v>
       </c>
-      <c r="F35" s="29">
-        <v>0</v>
-      </c>
-      <c r="G35" s="27" t="s">
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="27"/>
+      <c r="A36" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="31">
+      <c r="A37" s="9">
         <v>1.02019120511215e+23</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="32">
+      <c r="B37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="10">
         <v>43804.4735532407</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="11">
         <v>227</v>
       </c>
-      <c r="F37" s="33">
-        <v>0</v>
-      </c>
-      <c r="G37" s="31" t="s">
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="31"/>
+      <c r="A38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="27">
+      <c r="A39" s="13">
         <v>1.02019120511213e+23</v>
       </c>
-      <c r="B39" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="28">
+      <c r="B39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="14">
         <v>43804.4733217593</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="15">
         <v>487</v>
       </c>
-      <c r="F39" s="29">
-        <v>0</v>
-      </c>
-      <c r="G39" s="27" t="s">
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="27"/>
+      <c r="A40" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="13"/>
     </row>
     <row r="41" ht="14.25" spans="1:7">
-      <c r="A41" s="31">
+      <c r="A41" s="9">
         <v>1.02019120511211e+23</v>
       </c>
-      <c r="B41" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="32">
+      <c r="B41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="10">
         <v>43804.4730902778</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="11">
         <v>163.8</v>
       </c>
-      <c r="F41" s="33">
-        <v>0</v>
-      </c>
-      <c r="G41" s="31" t="s">
+      <c r="F41" s="11">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:7">
-      <c r="A42" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="31"/>
+      <c r="A42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" ht="14.25" spans="1:7">
-      <c r="A43" s="27">
+      <c r="A43" s="13">
         <v>1.02019120511205e+23</v>
       </c>
-      <c r="B43" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="28">
+      <c r="B43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="14">
         <v>43804.4728587963</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="29">
+      <c r="E43" s="15">
         <v>375.6</v>
       </c>
-      <c r="F43" s="29">
-        <v>0</v>
-      </c>
-      <c r="G43" s="27" t="s">
+      <c r="F43" s="15">
+        <v>0</v>
+      </c>
+      <c r="G43" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:7">
-      <c r="A44" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="27"/>
+      <c r="A44" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="13"/>
     </row>
     <row r="45" ht="14.25" spans="1:7">
-      <c r="A45" s="31">
+      <c r="A45" s="9">
         <v>1.02019120511203e+23</v>
       </c>
-      <c r="B45" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="32">
+      <c r="B45" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="10">
         <v>43804.4726041667</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="33">
+      <c r="E45" s="11">
         <v>736</v>
       </c>
-      <c r="F45" s="33">
-        <v>0</v>
-      </c>
-      <c r="G45" s="31" t="s">
+      <c r="F45" s="11">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:7">
-      <c r="A46" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="31"/>
+      <c r="A46" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" ht="14.25" spans="1:7">
-      <c r="A47" s="27">
+      <c r="A47" s="13">
         <v>1.020191205112e+23</v>
       </c>
-      <c r="B47" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="28">
+      <c r="B47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="14">
         <v>43804.4722569444</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="15">
         <v>384</v>
       </c>
-      <c r="F47" s="29">
-        <v>0</v>
-      </c>
-      <c r="G47" s="27" t="s">
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="27"/>
+      <c r="A48" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="13"/>
     </row>
     <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="31">
+      <c r="A49" s="9">
         <v>1.02019120511191e+23</v>
       </c>
-      <c r="B49" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="32">
+      <c r="B49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="10">
         <v>43804.4716782407</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="33">
+      <c r="E49" s="11">
         <v>134.9</v>
       </c>
-      <c r="F49" s="33">
-        <v>0</v>
-      </c>
-      <c r="G49" s="31" t="s">
+      <c r="F49" s="11">
+        <v>0</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="31"/>
+      <c r="A50" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="150">
@@ -3688,378 +3689,378 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="10">
+      <c r="A1" s="18">
         <v>1.02019120610421e+23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="19">
         <v>43805.4459490741</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="17">
+      <c r="A3" s="25">
         <v>1.02019120610414e+23</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="26">
         <v>43805.445625</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="A4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10">
+      <c r="A5" s="18">
         <v>1.0201912061041e+23</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="19">
         <v>43805.4451388889</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="A6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="17">
+      <c r="A7" s="25">
         <v>1.02019120610403e+23</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="26">
         <v>43805.444849537</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="A8" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="10">
+      <c r="A9" s="18">
         <v>1.02019120610392e+23</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="19">
         <v>43805.4440277778</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="A10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="17">
+      <c r="A11" s="25">
         <v>1.0201912061039e+23</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="26">
         <v>43805.4437615741</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="A12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="10">
+      <c r="A13" s="18">
         <v>1.02019120610383e+23</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="19">
         <v>43805.4434143519</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="A14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="17">
+      <c r="A15" s="25">
         <v>1.0201912061038e+23</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="26">
         <v>43805.4431018519</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="A16" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="10">
+      <c r="A17" s="18">
         <v>1.02019120610372e+23</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="19">
         <v>43805.4426273148</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="A18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="17">
+      <c r="A19" s="25">
         <v>1.0201912061037e+23</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="26">
         <v>43805.4423842593</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="A20" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="10">
+      <c r="A21" s="18">
         <v>1.02019120610361e+23</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="19">
         <v>43805.4417939815</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="A22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -4170,7 +4171,7 @@
       <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="17">
         <v>43806.4089930556</v>
       </c>
       <c r="E1" t="s">
@@ -4196,7 +4197,7 @@
       <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="17">
         <v>43806.40875</v>
       </c>
       <c r="E2" t="s">
@@ -4222,7 +4223,7 @@
       <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="17">
         <v>43806.4085069444</v>
       </c>
       <c r="E3" t="s">
@@ -4248,7 +4249,7 @@
       <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="17">
         <v>43806.4082638889</v>
       </c>
       <c r="E4" t="s">
@@ -4274,7 +4275,7 @@
       <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="17">
         <v>43806.4079976852</v>
       </c>
       <c r="E5" t="s">
@@ -4300,7 +4301,7 @@
       <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="17">
         <v>43806.4076273148</v>
       </c>
       <c r="E6" t="s">
@@ -4326,7 +4327,7 @@
       <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="17">
         <v>43806.4073611111</v>
       </c>
       <c r="E7" t="s">
@@ -4352,7 +4353,7 @@
       <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="17">
         <v>43806.4070949074</v>
       </c>
       <c r="E8" t="s">
@@ -4378,7 +4379,7 @@
       <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="17">
         <v>43806.3870138889</v>
       </c>
       <c r="E9" t="s">
@@ -4404,7 +4405,7 @@
       <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="17">
         <v>43806.3866782407</v>
       </c>
       <c r="E10" t="s">
@@ -4430,7 +4431,7 @@
       <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="17">
         <v>43806.3864236111</v>
       </c>
       <c r="E11" t="s">
@@ -4456,7 +4457,7 @@
       <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="17">
         <v>43806.3859837963</v>
       </c>
       <c r="E12" t="s">
@@ -4482,7 +4483,7 @@
       <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="17">
         <v>43806.3853472222</v>
       </c>
       <c r="E13" t="s">
@@ -4508,7 +4509,7 @@
       <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="17">
         <v>43806.3850578704</v>
       </c>
       <c r="E14" t="s">
@@ -4534,7 +4535,7 @@
       <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="17">
         <v>43806.384212963</v>
       </c>
       <c r="E15" t="s">
@@ -4580,7 +4581,7 @@
       <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="17">
         <v>43807.4980902778</v>
       </c>
       <c r="E1" t="s">
@@ -4606,7 +4607,7 @@
       <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="17">
         <v>43807.4978009259</v>
       </c>
       <c r="E2" t="s">
@@ -4632,7 +4633,7 @@
       <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="17">
         <v>43807.4975462963</v>
       </c>
       <c r="E3" t="s">
@@ -4658,7 +4659,7 @@
       <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="17">
         <v>43807.4972453704</v>
       </c>
       <c r="E4" t="s">
@@ -4684,7 +4685,7 @@
       <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="17">
         <v>43807.4969907407</v>
       </c>
       <c r="E5" t="s">
@@ -4710,7 +4711,7 @@
       <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="17">
         <v>43807.4967361111</v>
       </c>
       <c r="E6" t="s">
@@ -4736,7 +4737,7 @@
       <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="17">
         <v>43807.4964467593</v>
       </c>
       <c r="E7" t="s">
@@ -4762,7 +4763,7 @@
       <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="17">
         <v>43807.4960763889</v>
       </c>
       <c r="E8" t="s">
@@ -4788,7 +4789,7 @@
       <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="17">
         <v>43807.4954861111</v>
       </c>
       <c r="E9" t="s">
@@ -4814,7 +4815,7 @@
       <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="17">
         <v>43807.4950694444</v>
       </c>
       <c r="E10" t="s">
@@ -4840,7 +4841,7 @@
       <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="17">
         <v>43807.4948263889</v>
       </c>
       <c r="E11" t="s">
@@ -4866,7 +4867,7 @@
       <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="17">
         <v>43807.4945717593</v>
       </c>
       <c r="E12" t="s">
@@ -4892,7 +4893,7 @@
       <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="17">
         <v>43807.4943171296</v>
       </c>
       <c r="E13" t="s">
@@ -4918,7 +4919,7 @@
       <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="17">
         <v>43807.4939930556</v>
       </c>
       <c r="E14" t="s">
@@ -4944,7 +4945,7 @@
       <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="17">
         <v>43807.4936805556</v>
       </c>
       <c r="E15" t="s">
@@ -4970,7 +4971,7 @@
       <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="17">
         <v>43807.4932060185</v>
       </c>
       <c r="E16" t="s">
@@ -4997,521 +4998,521 @@
   <sheetPr/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A1" s="1">
+      <c r="A1" s="9">
         <v>1.02019120914444e+23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="2">
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10">
         <v>43808.6143981482</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="11">
         <v>149</v>
       </c>
-      <c r="F1" s="3">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="11">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3" s="9">
         <v>1.02019120910473e+23</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
         <v>43808.4496990741</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="11">
         <v>201.9</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="5">
+      <c r="A5" s="13">
         <v>1.0201912091047e+23</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14">
         <v>43808.449375</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="15">
         <v>575</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7" s="9">
         <v>1.0201912091046e+23</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10">
         <v>43808.4486689815</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="11">
         <v>216.7</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
+      <c r="A8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A9" s="5">
+      <c r="A9" s="13">
         <v>1.02019120910454e+23</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14">
         <v>43808.4483796296</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="15">
         <v>318</v>
       </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5"/>
+      <c r="A10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A11" s="1">
+      <c r="A11" s="9">
         <v>1.02019120910451e+23</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10">
         <v>43808.4481134259</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="11">
         <v>437</v>
       </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1"/>
+      <c r="A12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="5">
+      <c r="A13" s="13">
         <v>1.02019120910444e+23</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14">
         <v>43808.4477546296</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="15">
         <v>632</v>
       </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A15" s="1">
+      <c r="A15" s="9">
         <v>1.02019120910432e+23</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10">
         <v>43808.4468055556</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="11">
         <v>307.9</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="1"/>
+      <c r="A16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A17" s="5">
+      <c r="A17" s="13">
         <v>1.02019120910425e+23</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="14">
         <v>43808.4465162037</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="15">
         <v>1509</v>
       </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5"/>
+      <c r="A18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A19" s="1">
+      <c r="A19" s="9">
         <v>1.02019120910423e+23</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="10">
         <v>43808.4462847222</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="11">
         <v>254</v>
       </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="1"/>
+      <c r="A20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A21" s="5">
+      <c r="A21" s="13">
         <v>1.02019120910421e+23</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="B21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="14">
         <v>43808.4460532407</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="15">
         <v>280.9</v>
       </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="5"/>
+      <c r="A22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A23" s="1">
+      <c r="A23" s="9">
         <v>1.02019120910415e+23</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10">
         <v>43808.4457986111</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="11">
         <v>241.9</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="1"/>
+      <c r="A24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A25" s="5">
+      <c r="A25" s="13">
         <v>1.02019120910412e+23</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="14">
         <v>43808.4453703704</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="15">
         <v>447</v>
       </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="5"/>
+      <c r="A26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="1">
+      <c r="A27" s="9">
         <v>1.0201912091038e+23</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10">
         <v>43808.4430902778</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="11">
         <v>94.8</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="1"/>
+      <c r="A28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="1">
+      <c r="A29" s="9">
         <v>1.02019120910372e+23</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="10">
         <v>43808.4426041667</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="11">
         <v>633</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="1"/>
+      <c r="A30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -5626,4 +5627,845 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A1" s="1">
+        <v>1.02019121011095e+23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43809.4651967593</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3">
+        <v>362.5</v>
+      </c>
+      <c r="F1" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A3" s="5">
+        <v>1.02019121011092e+23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43809.4649074074</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7">
+        <v>849</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A5" s="1">
+        <v>1.02019121010494e+23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43809.4512268519</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3">
+        <v>142</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A7" s="5">
+        <v>1.02019121010471e+23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43809.4494907407</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7">
+        <v>333</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A9" s="1">
+        <v>1.02019121010461e+23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43809.4488194444</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3">
+        <v>183.9</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A11" s="5">
+        <v>1.02019121010453e+23</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="6">
+        <v>43809.4483680556</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="7">
+        <v>529</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:7">
+      <c r="A13" s="1">
+        <v>1.02019121010442e+23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43809.4474884259</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3">
+        <v>162.8</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:7">
+      <c r="A15" s="5">
+        <v>1.0201912101044e+23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="6">
+        <v>43809.4472337963</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7">
+        <v>408</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7">
+      <c r="A17" s="1">
+        <v>1.02019121010433e+23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43809.4469791667</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3">
+        <v>386.9</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:7">
+      <c r="A19" s="5">
+        <v>1.02019121010423e+23</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43809.4462037037</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="7">
+        <v>611</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:7">
+      <c r="A21" s="1">
+        <v>1.02019121010415e+23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43809.4457638889</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="3">
+        <v>406</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:7">
+      <c r="A23" s="5">
+        <v>1.02019121010392e+23</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="6">
+        <v>43809.4440625</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="7">
+        <v>184.9</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:7">
+      <c r="A25" s="1">
+        <v>1.0201912101039e+23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43809.4438078704</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="3">
+        <v>189</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:7">
+      <c r="A27" s="5">
+        <v>1.02019121010384e+23</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="6">
+        <v>43809.4435416667</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1034</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="5">
+        <v>1.02019121010374e+23</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="6">
+        <v>43809.4428935185</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="7">
+        <v>392</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:7">
+      <c r="A31" s="1">
+        <v>1.02019121010372e+23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43809.442650463</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3">
+        <v>401</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:7">
+      <c r="A33" s="5">
+        <v>1.02019121010365e+23</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="6">
+        <v>43809.442349537</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="7">
+        <v>617</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="1">
+        <v>1.02019121010362e+23</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="2">
+        <v>43809.4419560185</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="3">
+        <v>845</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:7">
+      <c r="A36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:7">
+      <c r="A37" s="5">
+        <v>1.0201912101036e+23</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="6">
+        <v>43809.4416898148</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="7">
+        <v>481</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:7">
+      <c r="A38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" ht="14.25" spans="1:7">
+      <c r="A39" s="1">
+        <v>1.02019121010283e+23</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="2">
+        <v>43809.4365393519</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="3">
+        <v>76</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="120">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4337"/>
+    <hyperlink ref="A4" r:id="rId2" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4336"/>
+    <hyperlink ref="A6" r:id="rId3" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4335"/>
+    <hyperlink ref="A8" r:id="rId4" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4334"/>
+    <hyperlink ref="A10" r:id="rId5" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4333"/>
+    <hyperlink ref="A12" r:id="rId6" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4332"/>
+    <hyperlink ref="A14" r:id="rId7" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4331"/>
+    <hyperlink ref="A16" r:id="rId8" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4330"/>
+    <hyperlink ref="A18" r:id="rId9" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4329"/>
+    <hyperlink ref="A20" r:id="rId10" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4328"/>
+    <hyperlink ref="A22" r:id="rId11" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4327"/>
+    <hyperlink ref="A24" r:id="rId12" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4326"/>
+    <hyperlink ref="A26" r:id="rId13" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4325"/>
+    <hyperlink ref="A28" r:id="rId14" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4324"/>
+    <hyperlink ref="A30" r:id="rId15" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4323"/>
+    <hyperlink ref="A32" r:id="rId16" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4322"/>
+    <hyperlink ref="A34" r:id="rId17" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4321"/>
+    <hyperlink ref="A36" r:id="rId18" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4320"/>
+    <hyperlink ref="A38" r:id="rId19" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4319"/>
+    <hyperlink ref="A40" r:id="rId20" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4318"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/s_d/feedit12月.xlsx
+++ b/s_d/feedit12月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="12.2" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="12.8" sheetId="6" r:id="rId6"/>
     <sheet name="12.9" sheetId="7" r:id="rId7"/>
     <sheet name="12.10" sheetId="8" r:id="rId8"/>
+    <sheet name="12.11" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="69">
   <si>
     <t>订单编号</t>
   </si>
@@ -280,11 +281,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -343,15 +344,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,6 +358,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -379,16 +397,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,7 +414,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,23 +442,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -435,30 +451,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,7 +504,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +558,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,13 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,97 +666,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,31 +684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,49 +716,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -780,11 +748,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,21 +813,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -820,28 +821,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,115 +851,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -990,6 +991,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1000,18 +1013,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1451,446 +1452,446 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="13">
+      <c r="A2" s="9">
         <v>1.02019120220063e+23</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10">
         <v>43801.8378703704</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="11">
         <v>253</v>
       </c>
-      <c r="F2" s="15">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="13"/>
+      <c r="A3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="9">
+      <c r="A4" s="13">
         <v>1.02019120220061e+23</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14">
         <v>43801.8376388889</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="15">
         <v>756</v>
       </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
+      <c r="A5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="13">
+      <c r="A6" s="9">
         <v>1.02019120220054e+23</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10">
         <v>43801.8373726852</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>242</v>
       </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="13"/>
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="9">
+      <c r="A8" s="13">
         <v>1.02019120220014e+23</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="B8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14">
         <v>43801.8345486111</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="15">
         <v>219</v>
       </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="13">
+      <c r="A10" s="9">
         <v>1.0201912022001e+23</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10">
         <v>43801.8341319444</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="11">
         <v>110</v>
       </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="13"/>
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="9">
+      <c r="A12" s="13">
         <v>1.02019120220001e+23</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="B12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="14">
         <v>43801.8334837963</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="15">
         <v>76.9</v>
       </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
+      <c r="A13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="13">
+      <c r="A14" s="9">
         <v>1.02019120219585e+23</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="B14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10">
         <v>43801.8326157407</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="11">
         <v>374.9</v>
       </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13" t="s">
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="13"/>
+      <c r="A15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="9">
+      <c r="A16" s="13">
         <v>1.02019120219573e+23</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="10">
+      <c r="B16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="14">
         <v>43801.8316087963</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="15">
         <v>1003</v>
       </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9" t="s">
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="13">
+      <c r="A18" s="9">
         <v>1.02019120219552e+23</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="14">
+      <c r="B18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="10">
         <v>43801.8301157407</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <v>175</v>
       </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="13"/>
+      <c r="A19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="9">
+      <c r="A20" s="13">
         <v>1.02019120219543e+23</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="B20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="14">
         <v>43801.8295949074</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="15">
         <v>270</v>
       </c>
-      <c r="F20" s="11">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="13">
+      <c r="A22" s="9">
         <v>1.02019120219515e+23</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="B22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="10">
         <v>43801.8276851852</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="11">
         <v>155</v>
       </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="13"/>
+      <c r="A23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="9">
+      <c r="A24" s="13">
         <v>1.02019120219512e+23</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="B24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="14">
         <v>43801.8273958333</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="15">
         <v>230</v>
       </c>
-      <c r="F24" s="11">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9" t="s">
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="9"/>
+      <c r="A25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="13">
+      <c r="A26" s="9">
         <v>1.02019120219503e+23</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="14">
+      <c r="B26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="10">
         <v>43801.8267708333</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="11">
         <v>262</v>
       </c>
-      <c r="F26" s="15">
-        <v>0</v>
-      </c>
-      <c r="G26" s="13" t="s">
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="13"/>
+      <c r="A27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="78">
@@ -2006,514 +2007,514 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="13">
+      <c r="A1" s="9">
         <v>1.0201912031352e+23</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="14">
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10">
         <v>43802.5778356481</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="11">
         <v>457</v>
       </c>
-      <c r="F1" s="15">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="11">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="13">
         <v>1.02019120313514e+23</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
         <v>43802.5776041667</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="15">
         <v>311.9</v>
       </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>1.02019120313512e+23</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
         <v>43802.5773726852</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>566</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="13"/>
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="9">
+      <c r="A7" s="13">
         <v>1.0201912031351e+23</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14">
         <v>43802.5771527778</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="15">
         <v>581.9</v>
       </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="13">
+      <c r="A9" s="9">
         <v>1.02019120313504e+23</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
         <v>43802.5768634259</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>570</v>
       </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="13">
         <v>1.02019120313501e+23</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
         <v>43802.5765856481</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="15">
         <v>357</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="13">
+      <c r="A13" s="9">
         <v>1.02019120313495e+23</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10">
         <v>43802.5762962963</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>244.9</v>
       </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="9">
+      <c r="A15" s="13">
         <v>1.02019120313493e+23</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
         <v>43802.5760532407</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="15">
         <v>296</v>
       </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="13">
+      <c r="A17" s="9">
         <v>1.0201912031349e+23</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
         <v>43802.5756944444</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>514</v>
       </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="9">
+      <c r="A19" s="13">
         <v>1.02019120313483e+23</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="B19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14">
         <v>43802.5753703704</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="15">
         <v>146.9</v>
       </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="13">
+      <c r="A21" s="9">
         <v>1.02019120313481e+23</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10">
         <v>43802.5751388889</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>537</v>
       </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="9">
+      <c r="A23" s="13">
         <v>1.02019120313475e+23</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="B23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="14">
         <v>43802.5748958333</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="15">
         <v>101</v>
       </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="13">
+      <c r="A25" s="9">
         <v>1.02019120313473e+23</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10">
         <v>43802.5746527778</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <v>805</v>
       </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="13" t="s">
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="9">
+      <c r="A27" s="13">
         <v>1.02019120313464e+23</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="10">
+      <c r="B27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14">
         <v>43802.5740856481</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="15">
         <v>807</v>
       </c>
-      <c r="F27" s="11">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
+      <c r="A28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="9">
+      <c r="A29" s="13">
         <v>1.02019120313461e+23</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="10">
+      <c r="B29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="14">
         <v>43802.5738078704</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="15">
         <v>389</v>
       </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -2643,854 +2644,854 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="13">
+      <c r="A1" s="9">
         <v>1.0201912051129e+23</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="14">
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10">
         <v>43804.4785069444</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="11">
         <v>302.9</v>
       </c>
-      <c r="F1" s="15">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="11">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="13">
         <v>1.02019120511284e+23</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
         <v>43804.4782638889</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="15">
         <v>691</v>
       </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>1.02019120511281e+23</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
         <v>43804.477974537</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>507</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="13"/>
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="9">
+      <c r="A7" s="13">
         <v>1.02019120511274e+23</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14">
         <v>43804.4776273148</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="15">
         <v>464</v>
       </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A9" s="13">
+      <c r="A9" s="9">
         <v>1.02019120511271e+23</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
         <v>43804.4772800926</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>628</v>
       </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="13">
         <v>1.02019120511264e+23</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
         <v>43804.4769560185</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="15">
         <v>1482</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="13">
+      <c r="A13" s="9">
         <v>1.02019120511261e+23</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10">
         <v>43804.4765625</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>327</v>
       </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A15" s="9">
+      <c r="A15" s="13">
         <v>1.02019120511255e+23</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
         <v>43804.4763310185</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="15">
         <v>753</v>
       </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A17" s="13">
+      <c r="A17" s="9">
         <v>1.02019120511253e+23</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
         <v>43804.476087963</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>571</v>
       </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A19" s="9">
+      <c r="A19" s="13">
         <v>1.02019120511251e+23</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="B19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14">
         <v>43804.4758333333</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="15">
         <v>701</v>
       </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A21" s="13">
+      <c r="A21" s="9">
         <v>1.02019120511245e+23</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10">
         <v>43804.4755787037</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>168</v>
       </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="9">
+      <c r="A23" s="13">
         <v>1.02019120511243e+23</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="B23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="14">
         <v>43804.4753472222</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="15">
         <v>595.9</v>
       </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="13">
+      <c r="A25" s="9">
         <v>1.0201912051124e+23</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10">
         <v>43804.4751041667</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <v>522</v>
       </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="13" t="s">
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="9">
+      <c r="A27" s="13">
         <v>1.02019120511234e+23</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="10">
+      <c r="B27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14">
         <v>43804.4748263889</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="15">
         <v>244</v>
       </c>
-      <c r="F27" s="11">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
+      <c r="A28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="9">
+      <c r="A29" s="13">
         <v>1.02019120511232e+23</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="10">
+      <c r="B29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="14">
         <v>43804.4745949074</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="15">
         <v>1129</v>
       </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="13">
+      <c r="A31" s="9">
         <v>1.0201912051123e+23</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="14">
+      <c r="B31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10">
         <v>43804.4743402778</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="11">
         <v>249</v>
       </c>
-      <c r="F31" s="15">
-        <v>0</v>
-      </c>
-      <c r="G31" s="13" t="s">
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="13"/>
+      <c r="A32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="9">
+      <c r="A33" s="13">
         <v>1.02019120511224e+23</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="10">
+      <c r="B33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="14">
         <v>43804.4741087963</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="15">
         <v>289</v>
       </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9" t="s">
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="9"/>
+      <c r="A34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="13">
+      <c r="A35" s="9">
         <v>1.02019120511221e+23</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="14">
+      <c r="B35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="10">
         <v>43804.4737962963</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="11">
         <v>226</v>
       </c>
-      <c r="F35" s="15">
-        <v>0</v>
-      </c>
-      <c r="G35" s="13" t="s">
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="13"/>
+      <c r="A36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="9">
+      <c r="A37" s="13">
         <v>1.02019120511215e+23</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="10">
+      <c r="B37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="14">
         <v>43804.4735532407</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="15">
         <v>227</v>
       </c>
-      <c r="F37" s="11">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9" t="s">
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="9"/>
+      <c r="A38" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="13">
+      <c r="A39" s="9">
         <v>1.02019120511213e+23</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="14">
+      <c r="B39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="10">
         <v>43804.4733217593</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="11">
         <v>487</v>
       </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="13" t="s">
+      <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="13"/>
+      <c r="A40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" ht="14.25" spans="1:7">
-      <c r="A41" s="9">
+      <c r="A41" s="13">
         <v>1.02019120511211e+23</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="10">
+      <c r="B41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="14">
         <v>43804.4730902778</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="15">
         <v>163.8</v>
       </c>
-      <c r="F41" s="11">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9" t="s">
+      <c r="F41" s="15">
+        <v>0</v>
+      </c>
+      <c r="G41" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:7">
-      <c r="A42" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="9"/>
+      <c r="A42" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="13"/>
     </row>
     <row r="43" ht="14.25" spans="1:7">
-      <c r="A43" s="13">
+      <c r="A43" s="9">
         <v>1.02019120511205e+23</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="14">
+      <c r="B43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="10">
         <v>43804.4728587963</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="11">
         <v>375.6</v>
       </c>
-      <c r="F43" s="15">
-        <v>0</v>
-      </c>
-      <c r="G43" s="13" t="s">
+      <c r="F43" s="11">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:7">
-      <c r="A44" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="13"/>
+      <c r="A44" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" ht="14.25" spans="1:7">
-      <c r="A45" s="9">
+      <c r="A45" s="13">
         <v>1.02019120511203e+23</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="10">
+      <c r="B45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="14">
         <v>43804.4726041667</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="15">
         <v>736</v>
       </c>
-      <c r="F45" s="11">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9" t="s">
+      <c r="F45" s="15">
+        <v>0</v>
+      </c>
+      <c r="G45" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:7">
-      <c r="A46" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="9"/>
+      <c r="A46" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="13"/>
     </row>
     <row r="47" ht="14.25" spans="1:7">
-      <c r="A47" s="13">
+      <c r="A47" s="9">
         <v>1.020191205112e+23</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="14">
+      <c r="B47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="10">
         <v>43804.4722569444</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="11">
         <v>384</v>
       </c>
-      <c r="F47" s="15">
-        <v>0</v>
-      </c>
-      <c r="G47" s="13" t="s">
+      <c r="F47" s="11">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="13"/>
+      <c r="A48" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="9">
+      <c r="A49" s="13">
         <v>1.02019120511191e+23</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="10">
+      <c r="B49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="14">
         <v>43804.4716782407</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="15">
         <v>134.9</v>
       </c>
-      <c r="F49" s="11">
-        <v>0</v>
-      </c>
-      <c r="G49" s="9" t="s">
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="9"/>
+      <c r="A50" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="150">
@@ -5005,514 +5006,514 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A1" s="9">
+      <c r="A1" s="13">
         <v>1.02019120914444e+23</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="10">
+      <c r="B1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14">
         <v>43808.6143981482</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="15">
         <v>149</v>
       </c>
-      <c r="F1" s="11">
-        <v>0</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="15">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="13">
         <v>1.02019120910473e+23</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
         <v>43808.4496990741</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="15">
         <v>201.9</v>
       </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>1.0201912091047e+23</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
         <v>43808.449375</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>575</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="13"/>
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="9">
+      <c r="A7" s="13">
         <v>1.0201912091046e+23</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14">
         <v>43808.4486689815</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="15">
         <v>216.7</v>
       </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A9" s="13">
+      <c r="A9" s="9">
         <v>1.02019120910454e+23</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
         <v>43808.4483796296</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>318</v>
       </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="13">
         <v>1.02019120910451e+23</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
         <v>43808.4481134259</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="15">
         <v>437</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="13">
+      <c r="A13" s="9">
         <v>1.02019120910444e+23</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10">
         <v>43808.4477546296</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>632</v>
       </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A15" s="9">
+      <c r="A15" s="13">
         <v>1.02019120910432e+23</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
         <v>43808.4468055556</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="15">
         <v>307.9</v>
       </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A17" s="13">
+      <c r="A17" s="9">
         <v>1.02019120910425e+23</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
         <v>43808.4465162037</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>1509</v>
       </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A19" s="9">
+      <c r="A19" s="13">
         <v>1.02019120910423e+23</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="B19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14">
         <v>43808.4462847222</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="15">
         <v>254</v>
       </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A21" s="13">
+      <c r="A21" s="9">
         <v>1.02019120910421e+23</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10">
         <v>43808.4460532407</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>280.9</v>
       </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A23" s="9">
+      <c r="A23" s="13">
         <v>1.02019120910415e+23</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="B23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="14">
         <v>43808.4457986111</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="15">
         <v>241.9</v>
       </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A25" s="13">
+      <c r="A25" s="9">
         <v>1.02019120910412e+23</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10">
         <v>43808.4453703704</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <v>447</v>
       </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="13" t="s">
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="9">
+      <c r="A27" s="13">
         <v>1.0201912091038e+23</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="10">
+      <c r="B27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14">
         <v>43808.4430902778</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="15">
         <v>94.8</v>
       </c>
-      <c r="F27" s="11">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
+      <c r="A28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="9">
+      <c r="A29" s="13">
         <v>1.02019120910372e+23</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="10">
+      <c r="B29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="14">
         <v>43808.4426041667</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="15">
         <v>633</v>
       </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -5634,691 +5635,691 @@
   <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="1">
+      <c r="A1" s="9">
         <v>1.02019121011095e+23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="2">
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10">
         <v>43809.4651967593</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="11">
         <v>362.5</v>
       </c>
-      <c r="F1" s="3">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="11">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="5">
+      <c r="A3" s="13">
         <v>1.02019121011092e+23</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
         <v>43809.4649074074</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="15">
         <v>849</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="9">
         <v>1.02019121010494e+23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
         <v>43809.4512268519</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="11">
         <v>142</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="13">
         <v>1.02019121010471e+23</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14">
         <v>43809.4494907407</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="15">
         <v>333</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="9">
         <v>1.02019121010461e+23</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
         <v>43809.4488194444</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="11">
         <v>183.9</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="13">
         <v>1.02019121010453e+23</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
         <v>43809.4483680556</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="15">
         <v>529</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="9">
         <v>1.02019121010442e+23</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10">
         <v>43809.4474884259</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="11">
         <v>162.8</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="5">
+      <c r="A15" s="13">
         <v>1.0201912101044e+23</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
         <v>43809.4472337963</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="15">
         <v>408</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="9">
         <v>1.02019121010433e+23</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
         <v>43809.4469791667</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="11">
         <v>386.9</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="5">
+      <c r="A19" s="13">
         <v>1.02019121010423e+23</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14">
         <v>43809.4462037037</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="15">
         <v>611</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
+      <c r="A20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="1">
+      <c r="A21" s="9">
         <v>1.02019121010415e+23</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10">
         <v>43809.4457638889</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="11">
         <v>406</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1"/>
+      <c r="A22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="5">
+      <c r="A23" s="13">
         <v>1.02019121010392e+23</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="14">
         <v>43809.4440625</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="15">
         <v>184.9</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
+      <c r="A24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="1">
+      <c r="A25" s="9">
         <v>1.0201912101039e+23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10">
         <v>43809.4438078704</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="11">
         <v>189</v>
       </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="5">
+      <c r="A27" s="13">
         <v>1.02019121010384e+23</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="B27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14">
         <v>43809.4435416667</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="15">
         <v>1034</v>
       </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="5"/>
+      <c r="A28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="5">
+      <c r="A29" s="13">
         <v>1.02019121010374e+23</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="B29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="14">
         <v>43809.4428935185</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="15">
         <v>392</v>
       </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="5"/>
+      <c r="A30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="1">
+      <c r="A31" s="9">
         <v>1.02019121010372e+23</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10">
         <v>43809.442650463</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="11">
         <v>401</v>
       </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="1"/>
+      <c r="A32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="5">
+      <c r="A33" s="13">
         <v>1.02019121010365e+23</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="6">
+      <c r="B33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="14">
         <v>43809.442349537</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="15">
         <v>617</v>
       </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="5"/>
+      <c r="A34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="1">
+      <c r="A35" s="9">
         <v>1.02019121010362e+23</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="B35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="10">
         <v>43809.4419560185</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="11">
         <v>845</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="1"/>
+      <c r="A36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="5">
+      <c r="A37" s="13">
         <v>1.0201912101036e+23</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="6">
+      <c r="B37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="14">
         <v>43809.4416898148</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="15">
         <v>481</v>
       </c>
-      <c r="F37" s="7">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5" t="s">
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="5"/>
+      <c r="A38" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="1">
+      <c r="A39" s="9">
         <v>1.02019121010283e+23</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="B39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="10">
         <v>43809.4365393519</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="11">
         <v>76</v>
       </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="1"/>
+      <c r="A40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="120">
@@ -6468,4 +6469,599 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1" spans="1:7">
+      <c r="A1" s="1">
+        <v>1.02019121121403e+23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43810.9031597222</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3">
+        <v>1448</v>
+      </c>
+      <c r="F1" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:7">
+      <c r="A3" s="5">
+        <v>1.02019121121395e+23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43810.9026967593</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7">
+        <v>621</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:7">
+      <c r="A5" s="1">
+        <v>1.02019121121391e+23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43810.9023032407</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>792</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:7">
+      <c r="A7" s="5">
+        <v>1.02019121121385e+23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43810.9020023148</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7">
+        <v>617</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:7">
+      <c r="A9" s="1">
+        <v>1.02019121121383e+23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43810.9017361111</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3">
+        <v>210.9</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:7">
+      <c r="A11" s="5">
+        <v>1.0201912112138e+23</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="6">
+        <v>43810.9014583333</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7">
+        <v>816</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:7">
+      <c r="A13" s="1">
+        <v>1.02019121121373e+23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43810.9010763889</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3">
+        <v>143.9</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:7">
+      <c r="A15" s="5">
+        <v>1.0201912112137e+23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="6">
+        <v>43810.9007060185</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="7">
+        <v>537.9</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7">
+      <c r="A17" s="1">
+        <v>1.02019121121363e+23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43810.9004166667</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3">
+        <v>212</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:7">
+      <c r="A19" s="5">
+        <v>1.02019121121361e+23</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43810.9001388889</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="7">
+        <v>375.9</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:7">
+      <c r="A21" s="1">
+        <v>1.0201912112135e+23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43810.899375</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>234.9</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:7">
+      <c r="A23" s="5">
+        <v>1.0201912112134e+23</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="6">
+        <v>43810.8986689815</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="7">
+        <v>817</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:7">
+      <c r="A25" s="1">
+        <v>1.0201912112133e+23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43810.8979282407</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3">
+        <v>322.9</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:7">
+      <c r="A27" s="5">
+        <v>1.02019121121314e+23</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="6">
+        <v>43810.8970486111</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="7">
+        <v>366.9</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="84">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4352"/>
+    <hyperlink ref="A4" r:id="rId2" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4351"/>
+    <hyperlink ref="A6" r:id="rId3" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4350"/>
+    <hyperlink ref="A8" r:id="rId4" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4349"/>
+    <hyperlink ref="A10" r:id="rId5" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4348"/>
+    <hyperlink ref="A12" r:id="rId6" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4347"/>
+    <hyperlink ref="A14" r:id="rId7" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4346"/>
+    <hyperlink ref="A16" r:id="rId8" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4345"/>
+    <hyperlink ref="A18" r:id="rId9" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4344"/>
+    <hyperlink ref="A20" r:id="rId10" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4343"/>
+    <hyperlink ref="A22" r:id="rId11" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4342"/>
+    <hyperlink ref="A24" r:id="rId12" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4341"/>
+    <hyperlink ref="A26" r:id="rId13" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4340"/>
+    <hyperlink ref="A28" r:id="rId14" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4339"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/s_d/feedit12月.xlsx
+++ b/s_d/feedit12月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="8"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="12.2" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="12.9" sheetId="7" r:id="rId7"/>
     <sheet name="12.10" sheetId="8" r:id="rId8"/>
     <sheet name="12.11" sheetId="9" r:id="rId9"/>
+    <sheet name="12.12" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="69">
   <si>
     <t>订单编号</t>
   </si>
@@ -282,9 +283,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -330,29 +331,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,9 +353,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,11 +367,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,36 +428,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,7 +444,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,7 +452,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,13 +487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFF9F9F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9F9F9"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,49 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,7 +523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,13 +547,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,13 +619,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,25 +655,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,43 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,21 +717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -742,15 +728,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,19 +750,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,6 +788,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -821,10 +822,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,16 +834,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,115 +852,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -991,6 +992,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1003,21 +1016,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1039,34 +1061,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1995,6 +1996,358 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1" spans="1:7">
+      <c r="A1" s="1">
+        <v>1.02019121218322e+23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43811.7725115741</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3">
+        <v>117</v>
+      </c>
+      <c r="F1" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:7">
+      <c r="A3" s="5">
+        <v>1.02019121218282e+23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43811.7696990741</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7">
+        <v>263.8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:7">
+      <c r="A5" s="1">
+        <v>1.02019121218203e+23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43811.7643055556</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2102</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:7">
+      <c r="A7" s="5">
+        <v>1.0201912121817e+23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43811.7618287037</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1010</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:7">
+      <c r="A9" s="1">
+        <v>1.0201912121752e+23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43811.7444560185</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3">
+        <v>320</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:7">
+      <c r="A11" s="5">
+        <v>1.02019121217453e+23</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="6">
+        <v>43811.74</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7">
+        <v>381</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:7">
+      <c r="A13" s="1">
+        <v>1.02019121216382e+23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43811.6933101852</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3">
+        <v>605</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:7">
+      <c r="A15" s="5">
+        <v>1.02019121216324e+23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="6">
+        <v>43811.6894560185</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1042</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4361"/>
+    <hyperlink ref="A4" r:id="rId2" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4360"/>
+    <hyperlink ref="A6" r:id="rId3" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4359"/>
+    <hyperlink ref="A8" r:id="rId4" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4358"/>
+    <hyperlink ref="A10" r:id="rId5" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4357"/>
+    <hyperlink ref="A12" r:id="rId6" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4356"/>
+    <hyperlink ref="A14" r:id="rId7" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4355"/>
+    <hyperlink ref="A16" r:id="rId8" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4354"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -6476,487 +6829,487 @@
   <sheetPr/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="1">
+      <c r="A1" s="9">
         <v>1.02019121121403e+23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="2">
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10">
         <v>43810.9031597222</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="11">
         <v>1448</v>
       </c>
-      <c r="F1" s="3">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="11">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="5">
+      <c r="A3" s="13">
         <v>1.02019121121395e+23</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
         <v>43810.9026967593</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="15">
         <v>621</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="9">
         <v>1.02019121121391e+23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
         <v>43810.9023032407</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="11">
         <v>792</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="13">
         <v>1.02019121121385e+23</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14">
         <v>43810.9020023148</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="15">
         <v>617</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="9">
         <v>1.02019121121383e+23</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
         <v>43810.9017361111</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="11">
         <v>210.9</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="13">
         <v>1.0201912112138e+23</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
         <v>43810.9014583333</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="15">
         <v>816</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="9">
         <v>1.02019121121373e+23</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10">
         <v>43810.9010763889</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="11">
         <v>143.9</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="5">
+      <c r="A15" s="13">
         <v>1.0201912112137e+23</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
         <v>43810.9007060185</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="15">
         <v>537.9</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="9">
         <v>1.02019121121363e+23</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
         <v>43810.9004166667</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="11">
         <v>212</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="5">
+      <c r="A19" s="13">
         <v>1.02019121121361e+23</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14">
         <v>43810.9001388889</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="15">
         <v>375.9</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
+      <c r="A20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="1">
+      <c r="A21" s="9">
         <v>1.0201912112135e+23</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10">
         <v>43810.899375</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="11">
         <v>234.9</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1"/>
+      <c r="A22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="5">
+      <c r="A23" s="13">
         <v>1.0201912112134e+23</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="14">
         <v>43810.8986689815</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="15">
         <v>817</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
+      <c r="A24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="1">
+      <c r="A25" s="9">
         <v>1.0201912112133e+23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10">
         <v>43810.8979282407</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="11">
         <v>322.9</v>
       </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="5">
+      <c r="A27" s="13">
         <v>1.02019121121314e+23</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="B27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14">
         <v>43810.8970486111</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="15">
         <v>366.9</v>
       </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="5"/>
+      <c r="A28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="84">

--- a/s_d/feedit12月.xlsx
+++ b/s_d/feedit12月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="12.2" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="12.10" sheetId="8" r:id="rId8"/>
     <sheet name="12.11" sheetId="9" r:id="rId9"/>
     <sheet name="12.12" sheetId="10" r:id="rId10"/>
+    <sheet name="12.13" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="69">
   <si>
     <t>订单编号</t>
   </si>
@@ -283,9 +284,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -331,7 +332,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,119 +464,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,13 +488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9F9F9"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFF9F9F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,7 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,43 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,25 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,19 +572,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,7 +602,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,37 +668,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,21 +733,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -759,23 +745,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,8 +765,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,13 +786,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,10 +823,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,16 +835,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,115 +853,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,6 +1020,27 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1040,34 +1062,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1453,446 +1454,446 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="9">
+      <c r="A2" s="13">
         <v>1.02019120220063e+23</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="B2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="14">
         <v>43801.8378703704</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="15">
         <v>253</v>
       </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
+      <c r="A3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="13">
+      <c r="A4" s="9">
         <v>1.02019120220061e+23</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10">
         <v>43801.8376388889</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <v>756</v>
       </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="13"/>
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="9">
+      <c r="A6" s="13">
         <v>1.02019120220054e+23</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="14">
         <v>43801.8373726852</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="15">
         <v>242</v>
       </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="13">
+      <c r="A8" s="9">
         <v>1.02019120220014e+23</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10">
         <v>43801.8345486111</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>219</v>
       </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
+      <c r="A9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="9">
+      <c r="A10" s="13">
         <v>1.0201912022001e+23</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14">
         <v>43801.8341319444</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="15">
         <v>110</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="13">
+      <c r="A12" s="9">
         <v>1.02019120220001e+23</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10">
         <v>43801.8334837963</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="11">
         <v>76.9</v>
       </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="13"/>
+      <c r="A13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="9">
+      <c r="A14" s="13">
         <v>1.02019120219585e+23</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="B14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="14">
         <v>43801.8326157407</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="15">
         <v>374.9</v>
       </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="13">
+      <c r="A16" s="9">
         <v>1.02019120219573e+23</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10">
         <v>43801.8316087963</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>1003</v>
       </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="13" t="s">
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
+      <c r="A17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="9">
+      <c r="A18" s="13">
         <v>1.02019120219552e+23</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="10">
+      <c r="B18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="14">
         <v>43801.8301157407</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="15">
         <v>175</v>
       </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="13">
+      <c r="A20" s="9">
         <v>1.02019120219543e+23</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="B20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="10">
         <v>43801.8295949074</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="11">
         <v>270</v>
       </c>
-      <c r="F20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13" t="s">
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="13"/>
+      <c r="A21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="9">
+      <c r="A22" s="13">
         <v>1.02019120219515e+23</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="10">
+      <c r="B22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="14">
         <v>43801.8276851852</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="15">
         <v>155</v>
       </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="9"/>
+      <c r="A23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="13">
+      <c r="A24" s="9">
         <v>1.02019120219512e+23</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="14">
+      <c r="B24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="10">
         <v>43801.8273958333</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="11">
         <v>230</v>
       </c>
-      <c r="F24" s="15">
-        <v>0</v>
-      </c>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
+      <c r="A25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="9">
+      <c r="A26" s="13">
         <v>1.02019120219503e+23</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="10">
+      <c r="B26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14">
         <v>43801.8267708333</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="15">
         <v>262</v>
       </c>
-      <c r="F26" s="11">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9" t="s">
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="9"/>
+      <c r="A27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="78">
@@ -2001,7 +2002,7 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -2011,276 +2012,276 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="1">
+      <c r="A1" s="9">
         <v>1.02019121218322e+23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="2">
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10">
         <v>43811.7725115741</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="11">
         <v>117</v>
       </c>
-      <c r="F1" s="3">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="11">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="5">
+      <c r="A3" s="13">
         <v>1.02019121218282e+23</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
         <v>43811.7696990741</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="15">
         <v>263.8</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="9">
         <v>1.02019121218203e+23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
         <v>43811.7643055556</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="11">
         <v>2102</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="13">
         <v>1.0201912121817e+23</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14">
         <v>43811.7618287037</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="15">
         <v>1010</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="9">
         <v>1.0201912121752e+23</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
         <v>43811.7444560185</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="11">
         <v>320</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="13">
         <v>1.02019121217453e+23</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
         <v>43811.74</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="15">
         <v>381</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="9">
         <v>1.02019121216382e+23</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10">
         <v>43811.6933101852</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="11">
         <v>605</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="5">
+      <c r="A15" s="13">
         <v>1.02019121216324e+23</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
         <v>43811.6894560185</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="15">
         <v>1042</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -2348,6 +2349,683 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A1" s="1">
+        <v>1.02019121316553e+23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43812.7052199074</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3">
+        <v>1228</v>
+      </c>
+      <c r="F1" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A3" s="5">
+        <v>1.02019121316514e+23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43812.7026041667</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7">
+        <v>257</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A5" s="1">
+        <v>1.02019121316512e+23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43812.702337963</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3">
+        <v>817</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A7" s="5">
+        <v>1.02019121316505e+23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43812.7020601852</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7">
+        <v>134.9</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:7">
+      <c r="A9" s="1">
+        <v>1.02019121316503e+23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43812.7018055556</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3">
+        <v>244.9</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:7">
+      <c r="A11" s="5">
+        <v>1.02019121316494e+23</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="6">
+        <v>43812.7012384259</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7">
+        <v>515</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:7">
+      <c r="A13" s="1">
+        <v>1.02019121316492e+23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43812.7009837963</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3">
+        <v>102</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:7">
+      <c r="A15" s="5">
+        <v>1.0201912131649e+23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="6">
+        <v>43812.7007407407</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="7">
+        <v>274</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7">
+      <c r="A17" s="1">
+        <v>1.02019121316483e+23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43812.7004282407</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>396</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:7">
+      <c r="A19" s="5">
+        <v>1.02019121316481e+23</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43812.700150463</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="7">
+        <v>155</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:7">
+      <c r="A21" s="1">
+        <v>1.02019121316474e+23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43812.6997800926</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3">
+        <v>352</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
+      <c r="A23" s="5">
+        <v>1.02019121316472e+23</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="6">
+        <v>43812.699537037</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1122</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:7">
+      <c r="A25" s="5">
+        <v>1.02019121316465e+23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="6">
+        <v>43812.6992824074</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="7">
+        <v>882</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
+      <c r="A26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:7">
+      <c r="A27" s="1">
+        <v>1.02019121316463e+23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="2">
+        <v>43812.6990162037</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>154.8</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="5">
+        <v>1.02019121316461e+23</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="6">
+        <v>43812.6987384259</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="7">
+        <v>138.9</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:7">
+      <c r="A31" s="1">
+        <v>1.02019121316452e+23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43812.6982291667</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="3">
+        <v>202.9</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="96">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4379"/>
+    <hyperlink ref="A4" r:id="rId2" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4376"/>
+    <hyperlink ref="A6" r:id="rId3" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4375"/>
+    <hyperlink ref="A8" r:id="rId4" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4374"/>
+    <hyperlink ref="A10" r:id="rId5" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4373"/>
+    <hyperlink ref="A12" r:id="rId6" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4372"/>
+    <hyperlink ref="A14" r:id="rId7" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4371"/>
+    <hyperlink ref="A16" r:id="rId8" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4370"/>
+    <hyperlink ref="A18" r:id="rId9" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4369"/>
+    <hyperlink ref="A20" r:id="rId10" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4368"/>
+    <hyperlink ref="A22" r:id="rId11" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4367"/>
+    <hyperlink ref="A24" r:id="rId12" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4366"/>
+    <hyperlink ref="A26" r:id="rId13" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4365"/>
+    <hyperlink ref="A28" r:id="rId14" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4364"/>
+    <hyperlink ref="A30" r:id="rId15" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4363"/>
+    <hyperlink ref="A32" r:id="rId16" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4362"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -2360,514 +3038,514 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="9">
+      <c r="A1" s="13">
         <v>1.0201912031352e+23</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="10">
+      <c r="B1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14">
         <v>43802.5778356481</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="15">
         <v>457</v>
       </c>
-      <c r="F1" s="11">
-        <v>0</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="15">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="13">
+      <c r="A3" s="9">
         <v>1.02019120313514e+23</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
         <v>43802.5776041667</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>311.9</v>
       </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="13"/>
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="13">
         <v>1.02019120313512e+23</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14">
         <v>43802.5773726852</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="15">
         <v>566</v>
       </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="13">
+      <c r="A7" s="9">
         <v>1.0201912031351e+23</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10">
         <v>43802.5771527778</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>581.9</v>
       </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="13"/>
+      <c r="A8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="9">
+      <c r="A9" s="13">
         <v>1.02019120313504e+23</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14">
         <v>43802.5768634259</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="15">
         <v>570</v>
       </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="13">
+      <c r="A11" s="9">
         <v>1.02019120313501e+23</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10">
         <v>43802.5765856481</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>357</v>
       </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="9">
+      <c r="A13" s="13">
         <v>1.02019120313495e+23</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14">
         <v>43802.5762962963</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="15">
         <v>244.9</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="13">
+      <c r="A15" s="9">
         <v>1.02019120313493e+23</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10">
         <v>43802.5760532407</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>296</v>
       </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="9">
+      <c r="A17" s="13">
         <v>1.0201912031349e+23</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="B17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="14">
         <v>43802.5756944444</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="15">
         <v>514</v>
       </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="13">
+      <c r="A19" s="9">
         <v>1.02019120313483e+23</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="10">
         <v>43802.5753703704</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="11">
         <v>146.9</v>
       </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="9">
+      <c r="A21" s="13">
         <v>1.02019120313481e+23</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="B21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="14">
         <v>43802.5751388889</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="15">
         <v>537</v>
       </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="13">
+      <c r="A23" s="9">
         <v>1.02019120313475e+23</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10">
         <v>43802.5748958333</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <v>101</v>
       </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="13"/>
+      <c r="A24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="9">
+      <c r="A25" s="13">
         <v>1.02019120313473e+23</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="10">
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="14">
         <v>43802.5746527778</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="15">
         <v>805</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9" t="s">
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="13">
+      <c r="A27" s="9">
         <v>1.02019120313464e+23</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="B27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10">
         <v>43802.5740856481</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="11">
         <v>807</v>
       </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="13" t="s">
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="13"/>
+      <c r="A28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="13">
+      <c r="A29" s="9">
         <v>1.02019120313461e+23</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="14">
+      <c r="B29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="10">
         <v>43802.5738078704</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="11">
         <v>389</v>
       </c>
-      <c r="F29" s="15">
-        <v>0</v>
-      </c>
-      <c r="G29" s="13" t="s">
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="13"/>
+      <c r="A30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -2997,854 +3675,854 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="9">
+      <c r="A1" s="13">
         <v>1.0201912051129e+23</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="10">
+      <c r="B1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14">
         <v>43804.4785069444</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="15">
         <v>302.9</v>
       </c>
-      <c r="F1" s="11">
-        <v>0</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="15">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="13">
+      <c r="A3" s="9">
         <v>1.02019120511284e+23</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
         <v>43804.4782638889</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>691</v>
       </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="13"/>
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="13">
         <v>1.02019120511281e+23</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14">
         <v>43804.477974537</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="15">
         <v>507</v>
       </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="13">
+      <c r="A7" s="9">
         <v>1.02019120511274e+23</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10">
         <v>43804.4776273148</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>464</v>
       </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="13"/>
+      <c r="A8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A9" s="9">
+      <c r="A9" s="13">
         <v>1.02019120511271e+23</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14">
         <v>43804.4772800926</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="15">
         <v>628</v>
       </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A11" s="13">
+      <c r="A11" s="9">
         <v>1.02019120511264e+23</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10">
         <v>43804.4769560185</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>1482</v>
       </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="9">
+      <c r="A13" s="13">
         <v>1.02019120511261e+23</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14">
         <v>43804.4765625</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="15">
         <v>327</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A15" s="13">
+      <c r="A15" s="9">
         <v>1.02019120511255e+23</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10">
         <v>43804.4763310185</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>753</v>
       </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A17" s="9">
+      <c r="A17" s="13">
         <v>1.02019120511253e+23</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="B17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="14">
         <v>43804.476087963</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="15">
         <v>571</v>
       </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A19" s="13">
+      <c r="A19" s="9">
         <v>1.02019120511251e+23</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="10">
         <v>43804.4758333333</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="11">
         <v>701</v>
       </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A21" s="9">
+      <c r="A21" s="13">
         <v>1.02019120511245e+23</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="B21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="14">
         <v>43804.4755787037</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="15">
         <v>168</v>
       </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="13">
+      <c r="A23" s="9">
         <v>1.02019120511243e+23</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10">
         <v>43804.4753472222</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <v>595.9</v>
       </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="13"/>
+      <c r="A24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="9">
+      <c r="A25" s="13">
         <v>1.0201912051124e+23</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="10">
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="14">
         <v>43804.4751041667</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="15">
         <v>522</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9" t="s">
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="13">
+      <c r="A27" s="9">
         <v>1.02019120511234e+23</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="B27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10">
         <v>43804.4748263889</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="11">
         <v>244</v>
       </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="13" t="s">
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="13"/>
+      <c r="A28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="13">
+      <c r="A29" s="9">
         <v>1.02019120511232e+23</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="14">
+      <c r="B29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="10">
         <v>43804.4745949074</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="11">
         <v>1129</v>
       </c>
-      <c r="F29" s="15">
-        <v>0</v>
-      </c>
-      <c r="G29" s="13" t="s">
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="13"/>
+      <c r="A30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="9">
+      <c r="A31" s="13">
         <v>1.0201912051123e+23</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="10">
+      <c r="B31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="14">
         <v>43804.4743402778</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="15">
         <v>249</v>
       </c>
-      <c r="F31" s="11">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9" t="s">
+      <c r="F31" s="15">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="9"/>
+      <c r="A32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="13">
+      <c r="A33" s="9">
         <v>1.02019120511224e+23</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="14">
+      <c r="B33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="10">
         <v>43804.4741087963</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="11">
         <v>289</v>
       </c>
-      <c r="F33" s="15">
-        <v>0</v>
-      </c>
-      <c r="G33" s="13" t="s">
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="13"/>
+      <c r="A34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="9">
+      <c r="A35" s="13">
         <v>1.02019120511221e+23</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="10">
+      <c r="B35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="14">
         <v>43804.4737962963</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="15">
         <v>226</v>
       </c>
-      <c r="F35" s="11">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9" t="s">
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="9"/>
+      <c r="A36" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="13">
+      <c r="A37" s="9">
         <v>1.02019120511215e+23</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="14">
+      <c r="B37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="10">
         <v>43804.4735532407</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="11">
         <v>227</v>
       </c>
-      <c r="F37" s="15">
-        <v>0</v>
-      </c>
-      <c r="G37" s="13" t="s">
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="13"/>
+      <c r="A38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="9">
+      <c r="A39" s="13">
         <v>1.02019120511213e+23</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="10">
+      <c r="B39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="14">
         <v>43804.4733217593</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="15">
         <v>487</v>
       </c>
-      <c r="F39" s="11">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9" t="s">
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="9"/>
+      <c r="A40" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="13"/>
     </row>
     <row r="41" ht="14.25" spans="1:7">
-      <c r="A41" s="13">
+      <c r="A41" s="9">
         <v>1.02019120511211e+23</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="14">
+      <c r="B41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="10">
         <v>43804.4730902778</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="11">
         <v>163.8</v>
       </c>
-      <c r="F41" s="15">
-        <v>0</v>
-      </c>
-      <c r="G41" s="13" t="s">
+      <c r="F41" s="11">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:7">
-      <c r="A42" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="13"/>
+      <c r="A42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" ht="14.25" spans="1:7">
-      <c r="A43" s="9">
+      <c r="A43" s="13">
         <v>1.02019120511205e+23</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="10">
+      <c r="B43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="14">
         <v>43804.4728587963</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="15">
         <v>375.6</v>
       </c>
-      <c r="F43" s="11">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9" t="s">
+      <c r="F43" s="15">
+        <v>0</v>
+      </c>
+      <c r="G43" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:7">
-      <c r="A44" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="9"/>
+      <c r="A44" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="13"/>
     </row>
     <row r="45" ht="14.25" spans="1:7">
-      <c r="A45" s="13">
+      <c r="A45" s="9">
         <v>1.02019120511203e+23</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="14">
+      <c r="B45" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="10">
         <v>43804.4726041667</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="11">
         <v>736</v>
       </c>
-      <c r="F45" s="15">
-        <v>0</v>
-      </c>
-      <c r="G45" s="13" t="s">
+      <c r="F45" s="11">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:7">
-      <c r="A46" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="13"/>
+      <c r="A46" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" ht="14.25" spans="1:7">
-      <c r="A47" s="9">
+      <c r="A47" s="13">
         <v>1.020191205112e+23</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="10">
+      <c r="B47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="14">
         <v>43804.4722569444</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="15">
         <v>384</v>
       </c>
-      <c r="F47" s="11">
-        <v>0</v>
-      </c>
-      <c r="G47" s="9" t="s">
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="9"/>
+      <c r="A48" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="13"/>
     </row>
     <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="13">
+      <c r="A49" s="9">
         <v>1.02019120511191e+23</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="14">
+      <c r="B49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="10">
         <v>43804.4716782407</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="11">
         <v>134.9</v>
       </c>
-      <c r="F49" s="15">
-        <v>0</v>
-      </c>
-      <c r="G49" s="13" t="s">
+      <c r="F49" s="11">
+        <v>0</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="13"/>
+      <c r="A50" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="150">
@@ -5359,514 +6037,514 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A1" s="13">
+      <c r="A1" s="9">
         <v>1.02019120914444e+23</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="14">
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10">
         <v>43808.6143981482</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="11">
         <v>149</v>
       </c>
-      <c r="F1" s="15">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="11">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="13">
+      <c r="A3" s="9">
         <v>1.02019120910473e+23</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
         <v>43808.4496990741</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>201.9</v>
       </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="13"/>
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="13">
         <v>1.0201912091047e+23</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14">
         <v>43808.449375</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="15">
         <v>575</v>
       </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="13">
+      <c r="A7" s="9">
         <v>1.0201912091046e+23</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10">
         <v>43808.4486689815</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>216.7</v>
       </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="13"/>
+      <c r="A8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A9" s="9">
+      <c r="A9" s="13">
         <v>1.02019120910454e+23</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14">
         <v>43808.4483796296</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="15">
         <v>318</v>
       </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A11" s="13">
+      <c r="A11" s="9">
         <v>1.02019120910451e+23</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10">
         <v>43808.4481134259</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>437</v>
       </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="9">
+      <c r="A13" s="13">
         <v>1.02019120910444e+23</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14">
         <v>43808.4477546296</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="15">
         <v>632</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A15" s="13">
+      <c r="A15" s="9">
         <v>1.02019120910432e+23</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10">
         <v>43808.4468055556</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>307.9</v>
       </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A17" s="9">
+      <c r="A17" s="13">
         <v>1.02019120910425e+23</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="B17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="14">
         <v>43808.4465162037</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="15">
         <v>1509</v>
       </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A19" s="13">
+      <c r="A19" s="9">
         <v>1.02019120910423e+23</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="10">
         <v>43808.4462847222</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="11">
         <v>254</v>
       </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A21" s="9">
+      <c r="A21" s="13">
         <v>1.02019120910421e+23</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="B21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="14">
         <v>43808.4460532407</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="15">
         <v>280.9</v>
       </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A23" s="13">
+      <c r="A23" s="9">
         <v>1.02019120910415e+23</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10">
         <v>43808.4457986111</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <v>241.9</v>
       </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="13"/>
+      <c r="A24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A25" s="9">
+      <c r="A25" s="13">
         <v>1.02019120910412e+23</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="10">
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="14">
         <v>43808.4453703704</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="15">
         <v>447</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9" t="s">
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="13">
+      <c r="A27" s="9">
         <v>1.0201912091038e+23</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="B27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10">
         <v>43808.4430902778</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="11">
         <v>94.8</v>
       </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="13" t="s">
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="13"/>
+      <c r="A28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="13">
+      <c r="A29" s="9">
         <v>1.02019120910372e+23</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="14">
+      <c r="B29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="10">
         <v>43808.4426041667</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="11">
         <v>633</v>
       </c>
-      <c r="F29" s="15">
-        <v>0</v>
-      </c>
-      <c r="G29" s="13" t="s">
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="13"/>
+      <c r="A30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -5995,684 +6673,684 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="9">
+      <c r="A1" s="13">
         <v>1.02019121011095e+23</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="10">
+      <c r="B1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14">
         <v>43809.4651967593</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="15">
         <v>362.5</v>
       </c>
-      <c r="F1" s="11">
-        <v>0</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="15">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="13">
+      <c r="A3" s="9">
         <v>1.02019121011092e+23</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
         <v>43809.4649074074</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>849</v>
       </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="13"/>
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="13">
         <v>1.02019121010494e+23</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14">
         <v>43809.4512268519</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="15">
         <v>142</v>
       </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="13">
+      <c r="A7" s="9">
         <v>1.02019121010471e+23</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10">
         <v>43809.4494907407</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>333</v>
       </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="13"/>
+      <c r="A8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A9" s="9">
+      <c r="A9" s="13">
         <v>1.02019121010461e+23</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14">
         <v>43809.4488194444</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="15">
         <v>183.9</v>
       </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A11" s="13">
+      <c r="A11" s="9">
         <v>1.02019121010453e+23</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10">
         <v>43809.4483680556</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>529</v>
       </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="9">
+      <c r="A13" s="13">
         <v>1.02019121010442e+23</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14">
         <v>43809.4474884259</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="15">
         <v>162.8</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="13">
+      <c r="A15" s="9">
         <v>1.0201912101044e+23</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10">
         <v>43809.4472337963</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>408</v>
       </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="9">
+      <c r="A17" s="13">
         <v>1.02019121010433e+23</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="B17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="14">
         <v>43809.4469791667</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="15">
         <v>386.9</v>
       </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="13">
+      <c r="A19" s="9">
         <v>1.02019121010423e+23</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="10">
         <v>43809.4462037037</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="11">
         <v>611</v>
       </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="9">
+      <c r="A21" s="13">
         <v>1.02019121010415e+23</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="B21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="14">
         <v>43809.4457638889</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="15">
         <v>406</v>
       </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="13">
+      <c r="A23" s="9">
         <v>1.02019121010392e+23</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10">
         <v>43809.4440625</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <v>184.9</v>
       </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="13"/>
+      <c r="A24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="9">
+      <c r="A25" s="13">
         <v>1.0201912101039e+23</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="10">
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="14">
         <v>43809.4438078704</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="15">
         <v>189</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9" t="s">
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="13">
+      <c r="A27" s="9">
         <v>1.02019121010384e+23</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="B27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10">
         <v>43809.4435416667</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="11">
         <v>1034</v>
       </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="13" t="s">
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="13"/>
+      <c r="A28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="13">
+      <c r="A29" s="9">
         <v>1.02019121010374e+23</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="14">
+      <c r="B29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="10">
         <v>43809.4428935185</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="11">
         <v>392</v>
       </c>
-      <c r="F29" s="15">
-        <v>0</v>
-      </c>
-      <c r="G29" s="13" t="s">
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="13"/>
+      <c r="A30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="9">
+      <c r="A31" s="13">
         <v>1.02019121010372e+23</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="10">
+      <c r="B31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="14">
         <v>43809.442650463</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="15">
         <v>401</v>
       </c>
-      <c r="F31" s="11">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9" t="s">
+      <c r="F31" s="15">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="9"/>
+      <c r="A32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="13">
+      <c r="A33" s="9">
         <v>1.02019121010365e+23</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="14">
+      <c r="B33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="10">
         <v>43809.442349537</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="11">
         <v>617</v>
       </c>
-      <c r="F33" s="15">
-        <v>0</v>
-      </c>
-      <c r="G33" s="13" t="s">
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="13"/>
+      <c r="A34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="9">
+      <c r="A35" s="13">
         <v>1.02019121010362e+23</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="10">
+      <c r="B35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="14">
         <v>43809.4419560185</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="15">
         <v>845</v>
       </c>
-      <c r="F35" s="11">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9" t="s">
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="9"/>
+      <c r="A36" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="13">
+      <c r="A37" s="9">
         <v>1.0201912101036e+23</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="14">
+      <c r="B37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="10">
         <v>43809.4416898148</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="11">
         <v>481</v>
       </c>
-      <c r="F37" s="15">
-        <v>0</v>
-      </c>
-      <c r="G37" s="13" t="s">
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="13"/>
+      <c r="A38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="9">
+      <c r="A39" s="13">
         <v>1.02019121010283e+23</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="10">
+      <c r="B39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="14">
         <v>43809.4365393519</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="15">
         <v>76</v>
       </c>
-      <c r="F39" s="11">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9" t="s">
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="9"/>
+      <c r="A40" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="120">
@@ -6836,480 +7514,480 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="9">
+      <c r="A1" s="13">
         <v>1.02019121121403e+23</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="10">
+      <c r="B1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14">
         <v>43810.9031597222</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="15">
         <v>1448</v>
       </c>
-      <c r="F1" s="11">
-        <v>0</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="15">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="13">
+      <c r="A3" s="9">
         <v>1.02019121121395e+23</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
         <v>43810.9026967593</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>621</v>
       </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="13"/>
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="13">
         <v>1.02019121121391e+23</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14">
         <v>43810.9023032407</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="15">
         <v>792</v>
       </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="13">
+      <c r="A7" s="9">
         <v>1.02019121121385e+23</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10">
         <v>43810.9020023148</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>617</v>
       </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="13"/>
+      <c r="A8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="9">
+      <c r="A9" s="13">
         <v>1.02019121121383e+23</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14">
         <v>43810.9017361111</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="15">
         <v>210.9</v>
       </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="13">
+      <c r="A11" s="9">
         <v>1.0201912112138e+23</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10">
         <v>43810.9014583333</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>816</v>
       </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="9">
+      <c r="A13" s="13">
         <v>1.02019121121373e+23</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14">
         <v>43810.9010763889</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="15">
         <v>143.9</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="13">
+      <c r="A15" s="9">
         <v>1.0201912112137e+23</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10">
         <v>43810.9007060185</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>537.9</v>
       </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="9">
+      <c r="A17" s="13">
         <v>1.02019121121363e+23</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="B17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="14">
         <v>43810.9004166667</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="15">
         <v>212</v>
       </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="13">
+      <c r="A19" s="9">
         <v>1.02019121121361e+23</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="10">
         <v>43810.9001388889</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="11">
         <v>375.9</v>
       </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="9">
+      <c r="A21" s="13">
         <v>1.0201912112135e+23</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="B21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="14">
         <v>43810.899375</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="15">
         <v>234.9</v>
       </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="13">
+      <c r="A23" s="9">
         <v>1.0201912112134e+23</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10">
         <v>43810.8986689815</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <v>817</v>
       </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="13"/>
+      <c r="A24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="9">
+      <c r="A25" s="13">
         <v>1.0201912112133e+23</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="10">
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="14">
         <v>43810.8979282407</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="15">
         <v>322.9</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9" t="s">
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="13">
+      <c r="A27" s="9">
         <v>1.02019121121314e+23</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="B27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10">
         <v>43810.8970486111</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="11">
         <v>366.9</v>
       </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="13" t="s">
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="13"/>
+      <c r="A28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="84">

--- a/s_d/feedit12月.xlsx
+++ b/s_d/feedit12月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="10"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="12.2" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="12.11" sheetId="9" r:id="rId9"/>
     <sheet name="12.12" sheetId="10" r:id="rId10"/>
     <sheet name="12.13" sheetId="11" r:id="rId11"/>
+    <sheet name="12.16" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="69">
   <si>
     <t>订单编号</t>
   </si>
@@ -283,11 +284,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -331,13 +332,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -346,30 +341,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -391,16 +363,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,8 +377,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,24 +429,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,11 +460,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,13 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFF9F9F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9F9F9"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,7 +507,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,49 +645,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,121 +687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,39 +719,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -765,23 +733,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,6 +755,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -815,6 +792,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -823,10 +824,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,16 +836,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -853,115 +854,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,6 +1021,27 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1041,34 +1063,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1454,446 +1455,446 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="13">
+      <c r="A2" s="9">
         <v>1.02019120220063e+23</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10">
         <v>43801.8378703704</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="11">
         <v>253</v>
       </c>
-      <c r="F2" s="15">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="13"/>
+      <c r="A3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="9">
+      <c r="A4" s="13">
         <v>1.02019120220061e+23</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14">
         <v>43801.8376388889</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="15">
         <v>756</v>
       </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
+      <c r="A5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="13">
+      <c r="A6" s="9">
         <v>1.02019120220054e+23</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10">
         <v>43801.8373726852</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>242</v>
       </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="13"/>
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="9">
+      <c r="A8" s="13">
         <v>1.02019120220014e+23</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="B8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14">
         <v>43801.8345486111</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="15">
         <v>219</v>
       </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="13">
+      <c r="A10" s="9">
         <v>1.0201912022001e+23</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10">
         <v>43801.8341319444</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="11">
         <v>110</v>
       </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="13"/>
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="9">
+      <c r="A12" s="13">
         <v>1.02019120220001e+23</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="B12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="14">
         <v>43801.8334837963</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="15">
         <v>76.9</v>
       </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
+      <c r="A13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="13">
+      <c r="A14" s="9">
         <v>1.02019120219585e+23</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="B14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10">
         <v>43801.8326157407</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="11">
         <v>374.9</v>
       </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13" t="s">
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="13"/>
+      <c r="A15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="9">
+      <c r="A16" s="13">
         <v>1.02019120219573e+23</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="10">
+      <c r="B16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="14">
         <v>43801.8316087963</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="15">
         <v>1003</v>
       </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9" t="s">
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="13">
+      <c r="A18" s="9">
         <v>1.02019120219552e+23</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="14">
+      <c r="B18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="10">
         <v>43801.8301157407</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <v>175</v>
       </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="13"/>
+      <c r="A19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="9">
+      <c r="A20" s="13">
         <v>1.02019120219543e+23</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="B20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="14">
         <v>43801.8295949074</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="15">
         <v>270</v>
       </c>
-      <c r="F20" s="11">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="13">
+      <c r="A22" s="9">
         <v>1.02019120219515e+23</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="B22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="10">
         <v>43801.8276851852</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="11">
         <v>155</v>
       </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="13"/>
+      <c r="A23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="9">
+      <c r="A24" s="13">
         <v>1.02019120219512e+23</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="B24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="14">
         <v>43801.8273958333</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="15">
         <v>230</v>
       </c>
-      <c r="F24" s="11">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9" t="s">
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="9"/>
+      <c r="A25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="13">
+      <c r="A26" s="9">
         <v>1.02019120219503e+23</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="14">
+      <c r="B26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="10">
         <v>43801.8267708333</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="11">
         <v>262</v>
       </c>
-      <c r="F26" s="15">
-        <v>0</v>
-      </c>
-      <c r="G26" s="13" t="s">
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="13"/>
+      <c r="A27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="78">
@@ -2012,276 +2013,276 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="9">
+      <c r="A1" s="13">
         <v>1.02019121218322e+23</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="10">
+      <c r="B1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14">
         <v>43811.7725115741</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="15">
         <v>117</v>
       </c>
-      <c r="F1" s="11">
-        <v>0</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="15">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="13">
+      <c r="A3" s="9">
         <v>1.02019121218282e+23</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
         <v>43811.7696990741</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>263.8</v>
       </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="13"/>
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="13">
         <v>1.02019121218203e+23</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14">
         <v>43811.7643055556</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="15">
         <v>2102</v>
       </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="13">
+      <c r="A7" s="9">
         <v>1.0201912121817e+23</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10">
         <v>43811.7618287037</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>1010</v>
       </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="13"/>
+      <c r="A8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="9">
+      <c r="A9" s="13">
         <v>1.0201912121752e+23</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14">
         <v>43811.7444560185</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="15">
         <v>320</v>
       </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="13">
+      <c r="A11" s="9">
         <v>1.02019121217453e+23</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10">
         <v>43811.74</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>381</v>
       </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="9">
+      <c r="A13" s="13">
         <v>1.02019121216382e+23</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14">
         <v>43811.6933101852</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="15">
         <v>605</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="13">
+      <c r="A15" s="9">
         <v>1.02019121216324e+23</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10">
         <v>43811.6894560185</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>1042</v>
       </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -2354,555 +2355,555 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A1" s="1">
+      <c r="A1" s="9">
         <v>1.02019121316553e+23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="2">
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10">
         <v>43812.7052199074</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="11">
         <v>1228</v>
       </c>
-      <c r="F1" s="3">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="11">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="5">
+      <c r="A3" s="13">
         <v>1.02019121316514e+23</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
         <v>43812.7026041667</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="15">
         <v>257</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="9">
         <v>1.02019121316512e+23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
         <v>43812.702337963</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="11">
         <v>817</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="13">
         <v>1.02019121316505e+23</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14">
         <v>43812.7020601852</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="15">
         <v>134.9</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="9">
         <v>1.02019121316503e+23</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
         <v>43812.7018055556</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="11">
         <v>244.9</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="13">
         <v>1.02019121316494e+23</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
         <v>43812.7012384259</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="15">
         <v>515</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="9">
         <v>1.02019121316492e+23</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10">
         <v>43812.7009837963</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="11">
         <v>102</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="5">
+      <c r="A15" s="13">
         <v>1.0201912131649e+23</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
         <v>43812.7007407407</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="15">
         <v>274</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="9">
         <v>1.02019121316483e+23</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
         <v>43812.7004282407</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="11">
         <v>396</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="5">
+      <c r="A19" s="13">
         <v>1.02019121316481e+23</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14">
         <v>43812.700150463</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="15">
         <v>155</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
+      <c r="A20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="1">
+      <c r="A21" s="9">
         <v>1.02019121316474e+23</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10">
         <v>43812.6997800926</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="11">
         <v>352</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1"/>
+      <c r="A22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" ht="14.25" spans="1:7">
-      <c r="A23" s="5">
+      <c r="A23" s="13">
         <v>1.02019121316472e+23</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="14">
         <v>43812.699537037</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="15">
         <v>1122</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
+      <c r="A24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" ht="14.25" spans="1:7">
-      <c r="A25" s="5">
+      <c r="A25" s="13">
         <v>1.02019121316465e+23</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="14">
         <v>43812.6992824074</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="15">
         <v>882</v>
       </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="5"/>
+      <c r="A26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" ht="14.25" spans="1:7">
-      <c r="A27" s="1">
+      <c r="A27" s="9">
         <v>1.02019121316463e+23</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10">
         <v>43812.6990162037</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="11">
         <v>154.8</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="1"/>
+      <c r="A28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="5">
+      <c r="A29" s="13">
         <v>1.02019121316461e+23</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="B29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="14">
         <v>43812.6987384259</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="15">
         <v>138.9</v>
       </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="5"/>
+      <c r="A30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="1">
+      <c r="A31" s="9">
         <v>1.02019121316452e+23</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10">
         <v>43812.6982291667</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="11">
         <v>202.9</v>
       </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="1"/>
+      <c r="A32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="96">
@@ -3026,6 +3027,847 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A1" s="1">
+        <v>1.02019121612571e+23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43815.5396990741</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3">
+        <v>305.9</v>
+      </c>
+      <c r="F1" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A3" s="1">
+        <v>1.02019121611224e+23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43815.4741087963</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
+        <v>496</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A5" s="5">
+        <v>1.02019121611191e+23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43815.4716666667</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7">
+        <v>438.9</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A7" s="1">
+        <v>1.02019121611172e+23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43815.4703819444</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3">
+        <v>269</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A9" s="5">
+        <v>1.0201912161105e+23</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43815.4619097222</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7">
+        <v>292</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A11" s="1">
+        <v>1.02019121611014e+23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43815.4595138889</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>386</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A13" s="1">
+        <v>1.02019121610544e+23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43815.4546759259</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3">
+        <v>621.9</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:7">
+      <c r="A15" s="5">
+        <v>1.02019121610515e+23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="6">
+        <v>43815.4527430556</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="7">
+        <v>662</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:7">
+      <c r="A17" s="1">
+        <v>1.02019121610492e+23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43815.4510185185</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3">
+        <v>348</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:7">
+      <c r="A19" s="5">
+        <v>1.0201912161047e+23</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43815.4493055556</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="7">
+        <v>407</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:7">
+      <c r="A21" s="1">
+        <v>1.02019121610392e+23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43815.4440856481</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3">
+        <v>175</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
+      <c r="A23" s="5">
+        <v>1.02019121610365e+23</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="6">
+        <v>43815.4422685185</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="7">
+        <v>135.4</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:7">
+      <c r="A25" s="1">
+        <v>1.02019121610183e+23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43815.4295949074</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2623.9</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:7">
+      <c r="A27" s="1">
+        <v>1.02019121610144e+23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="2">
+        <v>43815.4269560185</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>334</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="5">
+        <v>1.02019121610111e+23</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="6">
+        <v>43815.4244560185</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="7">
+        <v>407.9</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:7">
+      <c r="A31" s="1">
+        <v>1.02019121610071e+23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43815.4217013889</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="3">
+        <v>654</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:7">
+      <c r="A33" s="5">
+        <v>1.02019121610052e+23</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="6">
+        <v>43815.4203703704</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1145</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="1">
+        <v>1.02019121610013e+23</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="2">
+        <v>43815.4177662037</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="3">
+        <v>379</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:7">
+      <c r="A36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:7">
+      <c r="A37" s="5">
+        <v>1.02019121609585e+23</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="6">
+        <v>43815.4159606481</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="7">
+        <v>482.6</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:7">
+      <c r="A38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" ht="14.25" spans="1:7">
+      <c r="A39" s="1">
+        <v>1.02019121609551e+23</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="2">
+        <v>43815.4134143519</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="3">
+        <v>591.9</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="120">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4402"/>
+    <hyperlink ref="A4" r:id="rId2" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4400"/>
+    <hyperlink ref="A6" r:id="rId3" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4399"/>
+    <hyperlink ref="A8" r:id="rId4" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4398"/>
+    <hyperlink ref="A10" r:id="rId5" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4397"/>
+    <hyperlink ref="A12" r:id="rId6" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4396"/>
+    <hyperlink ref="A14" r:id="rId7" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4394"/>
+    <hyperlink ref="A16" r:id="rId8" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4393"/>
+    <hyperlink ref="A18" r:id="rId9" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4392"/>
+    <hyperlink ref="A20" r:id="rId10" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4391"/>
+    <hyperlink ref="A22" r:id="rId11" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4390"/>
+    <hyperlink ref="A24" r:id="rId12" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4389"/>
+    <hyperlink ref="A26" r:id="rId13" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4388"/>
+    <hyperlink ref="A28" r:id="rId14" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4387"/>
+    <hyperlink ref="A30" r:id="rId15" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4386"/>
+    <hyperlink ref="A32" r:id="rId16" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4385"/>
+    <hyperlink ref="A34" r:id="rId17" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4384"/>
+    <hyperlink ref="A36" r:id="rId18" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4383"/>
+    <hyperlink ref="A38" r:id="rId19" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4382"/>
+    <hyperlink ref="A40" r:id="rId20" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4381"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -3038,514 +3880,514 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="13">
+      <c r="A1" s="9">
         <v>1.0201912031352e+23</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="14">
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10">
         <v>43802.5778356481</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="11">
         <v>457</v>
       </c>
-      <c r="F1" s="15">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="11">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="13">
         <v>1.02019120313514e+23</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
         <v>43802.5776041667</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="15">
         <v>311.9</v>
       </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>1.02019120313512e+23</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
         <v>43802.5773726852</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>566</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="13"/>
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="9">
+      <c r="A7" s="13">
         <v>1.0201912031351e+23</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14">
         <v>43802.5771527778</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="15">
         <v>581.9</v>
       </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="13">
+      <c r="A9" s="9">
         <v>1.02019120313504e+23</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
         <v>43802.5768634259</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>570</v>
       </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="13">
         <v>1.02019120313501e+23</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
         <v>43802.5765856481</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="15">
         <v>357</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="13">
+      <c r="A13" s="9">
         <v>1.02019120313495e+23</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10">
         <v>43802.5762962963</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>244.9</v>
       </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="9">
+      <c r="A15" s="13">
         <v>1.02019120313493e+23</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
         <v>43802.5760532407</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="15">
         <v>296</v>
       </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="13">
+      <c r="A17" s="9">
         <v>1.0201912031349e+23</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
         <v>43802.5756944444</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>514</v>
       </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="9">
+      <c r="A19" s="13">
         <v>1.02019120313483e+23</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="B19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14">
         <v>43802.5753703704</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="15">
         <v>146.9</v>
       </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="13">
+      <c r="A21" s="9">
         <v>1.02019120313481e+23</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10">
         <v>43802.5751388889</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>537</v>
       </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="9">
+      <c r="A23" s="13">
         <v>1.02019120313475e+23</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="B23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="14">
         <v>43802.5748958333</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="15">
         <v>101</v>
       </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="13">
+      <c r="A25" s="9">
         <v>1.02019120313473e+23</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10">
         <v>43802.5746527778</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <v>805</v>
       </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="13" t="s">
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="9">
+      <c r="A27" s="13">
         <v>1.02019120313464e+23</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="10">
+      <c r="B27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14">
         <v>43802.5740856481</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="15">
         <v>807</v>
       </c>
-      <c r="F27" s="11">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
+      <c r="A28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="9">
+      <c r="A29" s="13">
         <v>1.02019120313461e+23</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="10">
+      <c r="B29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="14">
         <v>43802.5738078704</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="15">
         <v>389</v>
       </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -3675,854 +4517,854 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="13">
+      <c r="A1" s="9">
         <v>1.0201912051129e+23</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="14">
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10">
         <v>43804.4785069444</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="11">
         <v>302.9</v>
       </c>
-      <c r="F1" s="15">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="11">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="13">
         <v>1.02019120511284e+23</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
         <v>43804.4782638889</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="15">
         <v>691</v>
       </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>1.02019120511281e+23</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
         <v>43804.477974537</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>507</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="13"/>
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="9">
+      <c r="A7" s="13">
         <v>1.02019120511274e+23</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14">
         <v>43804.4776273148</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="15">
         <v>464</v>
       </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A9" s="13">
+      <c r="A9" s="9">
         <v>1.02019120511271e+23</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
         <v>43804.4772800926</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>628</v>
       </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="13">
         <v>1.02019120511264e+23</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
         <v>43804.4769560185</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="15">
         <v>1482</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="13">
+      <c r="A13" s="9">
         <v>1.02019120511261e+23</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10">
         <v>43804.4765625</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>327</v>
       </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A15" s="9">
+      <c r="A15" s="13">
         <v>1.02019120511255e+23</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
         <v>43804.4763310185</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="15">
         <v>753</v>
       </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A17" s="13">
+      <c r="A17" s="9">
         <v>1.02019120511253e+23</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
         <v>43804.476087963</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>571</v>
       </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A19" s="9">
+      <c r="A19" s="13">
         <v>1.02019120511251e+23</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="B19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14">
         <v>43804.4758333333</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="15">
         <v>701</v>
       </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A21" s="13">
+      <c r="A21" s="9">
         <v>1.02019120511245e+23</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10">
         <v>43804.4755787037</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>168</v>
       </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="9">
+      <c r="A23" s="13">
         <v>1.02019120511243e+23</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="B23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="14">
         <v>43804.4753472222</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="15">
         <v>595.9</v>
       </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="13">
+      <c r="A25" s="9">
         <v>1.0201912051124e+23</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10">
         <v>43804.4751041667</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <v>522</v>
       </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="13" t="s">
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="9">
+      <c r="A27" s="13">
         <v>1.02019120511234e+23</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="10">
+      <c r="B27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14">
         <v>43804.4748263889</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="15">
         <v>244</v>
       </c>
-      <c r="F27" s="11">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
+      <c r="A28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="9">
+      <c r="A29" s="13">
         <v>1.02019120511232e+23</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="10">
+      <c r="B29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="14">
         <v>43804.4745949074</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="15">
         <v>1129</v>
       </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="13">
+      <c r="A31" s="9">
         <v>1.0201912051123e+23</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="14">
+      <c r="B31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10">
         <v>43804.4743402778</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="11">
         <v>249</v>
       </c>
-      <c r="F31" s="15">
-        <v>0</v>
-      </c>
-      <c r="G31" s="13" t="s">
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="13"/>
+      <c r="A32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="9">
+      <c r="A33" s="13">
         <v>1.02019120511224e+23</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="10">
+      <c r="B33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="14">
         <v>43804.4741087963</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="15">
         <v>289</v>
       </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9" t="s">
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="9"/>
+      <c r="A34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="13">
+      <c r="A35" s="9">
         <v>1.02019120511221e+23</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="14">
+      <c r="B35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="10">
         <v>43804.4737962963</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="11">
         <v>226</v>
       </c>
-      <c r="F35" s="15">
-        <v>0</v>
-      </c>
-      <c r="G35" s="13" t="s">
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="13"/>
+      <c r="A36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="9">
+      <c r="A37" s="13">
         <v>1.02019120511215e+23</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="10">
+      <c r="B37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="14">
         <v>43804.4735532407</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="15">
         <v>227</v>
       </c>
-      <c r="F37" s="11">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9" t="s">
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="9"/>
+      <c r="A38" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="13">
+      <c r="A39" s="9">
         <v>1.02019120511213e+23</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="14">
+      <c r="B39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="10">
         <v>43804.4733217593</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="11">
         <v>487</v>
       </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="13" t="s">
+      <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="13"/>
+      <c r="A40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" ht="14.25" spans="1:7">
-      <c r="A41" s="9">
+      <c r="A41" s="13">
         <v>1.02019120511211e+23</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="10">
+      <c r="B41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="14">
         <v>43804.4730902778</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="15">
         <v>163.8</v>
       </c>
-      <c r="F41" s="11">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9" t="s">
+      <c r="F41" s="15">
+        <v>0</v>
+      </c>
+      <c r="G41" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:7">
-      <c r="A42" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="9"/>
+      <c r="A42" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="13"/>
     </row>
     <row r="43" ht="14.25" spans="1:7">
-      <c r="A43" s="13">
+      <c r="A43" s="9">
         <v>1.02019120511205e+23</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="14">
+      <c r="B43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="10">
         <v>43804.4728587963</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="11">
         <v>375.6</v>
       </c>
-      <c r="F43" s="15">
-        <v>0</v>
-      </c>
-      <c r="G43" s="13" t="s">
+      <c r="F43" s="11">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:7">
-      <c r="A44" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="13"/>
+      <c r="A44" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" ht="14.25" spans="1:7">
-      <c r="A45" s="9">
+      <c r="A45" s="13">
         <v>1.02019120511203e+23</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="10">
+      <c r="B45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="14">
         <v>43804.4726041667</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="15">
         <v>736</v>
       </c>
-      <c r="F45" s="11">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9" t="s">
+      <c r="F45" s="15">
+        <v>0</v>
+      </c>
+      <c r="G45" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:7">
-      <c r="A46" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="9"/>
+      <c r="A46" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="13"/>
     </row>
     <row r="47" ht="14.25" spans="1:7">
-      <c r="A47" s="13">
+      <c r="A47" s="9">
         <v>1.020191205112e+23</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="14">
+      <c r="B47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="10">
         <v>43804.4722569444</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="11">
         <v>384</v>
       </c>
-      <c r="F47" s="15">
-        <v>0</v>
-      </c>
-      <c r="G47" s="13" t="s">
+      <c r="F47" s="11">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="13"/>
+      <c r="A48" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="9">
+      <c r="A49" s="13">
         <v>1.02019120511191e+23</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="10">
+      <c r="B49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="14">
         <v>43804.4716782407</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="15">
         <v>134.9</v>
       </c>
-      <c r="F49" s="11">
-        <v>0</v>
-      </c>
-      <c r="G49" s="9" t="s">
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="9"/>
+      <c r="A50" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="150">
@@ -6037,514 +6879,514 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A1" s="9">
+      <c r="A1" s="13">
         <v>1.02019120914444e+23</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="10">
+      <c r="B1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14">
         <v>43808.6143981482</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="15">
         <v>149</v>
       </c>
-      <c r="F1" s="11">
-        <v>0</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="15">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="13">
         <v>1.02019120910473e+23</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
         <v>43808.4496990741</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="15">
         <v>201.9</v>
       </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>1.0201912091047e+23</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
         <v>43808.449375</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>575</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="13"/>
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="9">
+      <c r="A7" s="13">
         <v>1.0201912091046e+23</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14">
         <v>43808.4486689815</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="15">
         <v>216.7</v>
       </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A9" s="13">
+      <c r="A9" s="9">
         <v>1.02019120910454e+23</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
         <v>43808.4483796296</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>318</v>
       </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="13">
         <v>1.02019120910451e+23</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
         <v>43808.4481134259</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="15">
         <v>437</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="13">
+      <c r="A13" s="9">
         <v>1.02019120910444e+23</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10">
         <v>43808.4477546296</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>632</v>
       </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A15" s="9">
+      <c r="A15" s="13">
         <v>1.02019120910432e+23</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
         <v>43808.4468055556</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="15">
         <v>307.9</v>
       </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A17" s="13">
+      <c r="A17" s="9">
         <v>1.02019120910425e+23</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
         <v>43808.4465162037</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>1509</v>
       </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A19" s="9">
+      <c r="A19" s="13">
         <v>1.02019120910423e+23</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="B19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14">
         <v>43808.4462847222</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="15">
         <v>254</v>
       </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A21" s="13">
+      <c r="A21" s="9">
         <v>1.02019120910421e+23</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10">
         <v>43808.4460532407</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>280.9</v>
       </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A23" s="9">
+      <c r="A23" s="13">
         <v>1.02019120910415e+23</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="B23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="14">
         <v>43808.4457986111</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="15">
         <v>241.9</v>
       </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A25" s="13">
+      <c r="A25" s="9">
         <v>1.02019120910412e+23</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10">
         <v>43808.4453703704</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <v>447</v>
       </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="13" t="s">
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="9">
+      <c r="A27" s="13">
         <v>1.0201912091038e+23</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="10">
+      <c r="B27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14">
         <v>43808.4430902778</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="15">
         <v>94.8</v>
       </c>
-      <c r="F27" s="11">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
+      <c r="A28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="9">
+      <c r="A29" s="13">
         <v>1.02019120910372e+23</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="10">
+      <c r="B29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="14">
         <v>43808.4426041667</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="15">
         <v>633</v>
       </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -6673,684 +7515,684 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="13">
+      <c r="A1" s="9">
         <v>1.02019121011095e+23</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="14">
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10">
         <v>43809.4651967593</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="11">
         <v>362.5</v>
       </c>
-      <c r="F1" s="15">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="11">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="13">
         <v>1.02019121011092e+23</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
         <v>43809.4649074074</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="15">
         <v>849</v>
       </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>1.02019121010494e+23</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
         <v>43809.4512268519</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>142</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="13"/>
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="9">
+      <c r="A7" s="13">
         <v>1.02019121010471e+23</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14">
         <v>43809.4494907407</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="15">
         <v>333</v>
       </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A9" s="13">
+      <c r="A9" s="9">
         <v>1.02019121010461e+23</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
         <v>43809.4488194444</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>183.9</v>
       </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="13">
         <v>1.02019121010453e+23</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
         <v>43809.4483680556</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="15">
         <v>529</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="13">
+      <c r="A13" s="9">
         <v>1.02019121010442e+23</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10">
         <v>43809.4474884259</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>162.8</v>
       </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="9">
+      <c r="A15" s="13">
         <v>1.0201912101044e+23</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
         <v>43809.4472337963</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="15">
         <v>408</v>
       </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="13">
+      <c r="A17" s="9">
         <v>1.02019121010433e+23</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
         <v>43809.4469791667</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>386.9</v>
       </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="9">
+      <c r="A19" s="13">
         <v>1.02019121010423e+23</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="B19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14">
         <v>43809.4462037037</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="15">
         <v>611</v>
       </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="13">
+      <c r="A21" s="9">
         <v>1.02019121010415e+23</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10">
         <v>43809.4457638889</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>406</v>
       </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="9">
+      <c r="A23" s="13">
         <v>1.02019121010392e+23</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="B23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="14">
         <v>43809.4440625</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="15">
         <v>184.9</v>
       </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="13">
+      <c r="A25" s="9">
         <v>1.0201912101039e+23</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10">
         <v>43809.4438078704</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <v>189</v>
       </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="13" t="s">
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="9">
+      <c r="A27" s="13">
         <v>1.02019121010384e+23</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="10">
+      <c r="B27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14">
         <v>43809.4435416667</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="15">
         <v>1034</v>
       </c>
-      <c r="F27" s="11">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
+      <c r="A28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="9">
+      <c r="A29" s="13">
         <v>1.02019121010374e+23</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="10">
+      <c r="B29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="14">
         <v>43809.4428935185</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="15">
         <v>392</v>
       </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="13">
+      <c r="A31" s="9">
         <v>1.02019121010372e+23</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="14">
+      <c r="B31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10">
         <v>43809.442650463</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="11">
         <v>401</v>
       </c>
-      <c r="F31" s="15">
-        <v>0</v>
-      </c>
-      <c r="G31" s="13" t="s">
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="13"/>
+      <c r="A32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="9">
+      <c r="A33" s="13">
         <v>1.02019121010365e+23</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="10">
+      <c r="B33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="14">
         <v>43809.442349537</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="15">
         <v>617</v>
       </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9" t="s">
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="9"/>
+      <c r="A34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="13">
+      <c r="A35" s="9">
         <v>1.02019121010362e+23</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="14">
+      <c r="B35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="10">
         <v>43809.4419560185</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="11">
         <v>845</v>
       </c>
-      <c r="F35" s="15">
-        <v>0</v>
-      </c>
-      <c r="G35" s="13" t="s">
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="13"/>
+      <c r="A36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="9">
+      <c r="A37" s="13">
         <v>1.0201912101036e+23</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="10">
+      <c r="B37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="14">
         <v>43809.4416898148</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="15">
         <v>481</v>
       </c>
-      <c r="F37" s="11">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9" t="s">
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="9"/>
+      <c r="A38" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="13">
+      <c r="A39" s="9">
         <v>1.02019121010283e+23</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="14">
+      <c r="B39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="10">
         <v>43809.4365393519</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="11">
         <v>76</v>
       </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="13" t="s">
+      <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="13"/>
+      <c r="A40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="120">
@@ -7514,480 +8356,480 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="13">
+      <c r="A1" s="9">
         <v>1.02019121121403e+23</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="14">
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10">
         <v>43810.9031597222</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="11">
         <v>1448</v>
       </c>
-      <c r="F1" s="15">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="11">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="13">
         <v>1.02019121121395e+23</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
         <v>43810.9026967593</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="15">
         <v>621</v>
       </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>1.02019121121391e+23</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
         <v>43810.9023032407</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>792</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="13"/>
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="9">
+      <c r="A7" s="13">
         <v>1.02019121121385e+23</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14">
         <v>43810.9020023148</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="15">
         <v>617</v>
       </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="13">
+      <c r="A9" s="9">
         <v>1.02019121121383e+23</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
         <v>43810.9017361111</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>210.9</v>
       </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="13">
         <v>1.0201912112138e+23</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
         <v>43810.9014583333</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="15">
         <v>816</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="13">
+      <c r="A13" s="9">
         <v>1.02019121121373e+23</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10">
         <v>43810.9010763889</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>143.9</v>
       </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="9">
+      <c r="A15" s="13">
         <v>1.0201912112137e+23</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
         <v>43810.9007060185</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="15">
         <v>537.9</v>
       </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="13">
+      <c r="A17" s="9">
         <v>1.02019121121363e+23</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
         <v>43810.9004166667</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>212</v>
       </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="9">
+      <c r="A19" s="13">
         <v>1.02019121121361e+23</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="B19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14">
         <v>43810.9001388889</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="15">
         <v>375.9</v>
       </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="13">
+      <c r="A21" s="9">
         <v>1.0201912112135e+23</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10">
         <v>43810.899375</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>234.9</v>
       </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="9">
+      <c r="A23" s="13">
         <v>1.0201912112134e+23</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="B23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="14">
         <v>43810.8986689815</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="15">
         <v>817</v>
       </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="13">
+      <c r="A25" s="9">
         <v>1.0201912112133e+23</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10">
         <v>43810.8979282407</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <v>322.9</v>
       </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="13" t="s">
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="9">
+      <c r="A27" s="13">
         <v>1.02019121121314e+23</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="10">
+      <c r="B27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14">
         <v>43810.8970486111</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="15">
         <v>366.9</v>
       </c>
-      <c r="F27" s="11">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
+      <c r="A28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="84">
